--- a/ATL2019Weather.xlsx
+++ b/ATL2019Weather.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bed5c5d495b8be0/Documents/CIS361/RProjectFanAttendance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{2495517B-FC59-4FE1-8E08-E5A9C4E7F5BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{91942A6E-1FD0-4B06-81EB-9BEBCD32CD88}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="8_{2495517B-FC59-4FE1-8E08-E5A9C4E7F5BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AA6F1DFE-8438-4B3C-B2F4-8F3CCDF6C986}"/>
   <bookViews>
-    <workbookView xWindow="1842" yWindow="1932" windowWidth="17280" windowHeight="9444" activeTab="1" xr2:uid="{834661A1-0C70-46C6-944D-34991D18C465}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="2" xr2:uid="{834661A1-0C70-46C6-944D-34991D18C465}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2018" sheetId="2" r:id="rId2"/>
+    <sheet name="2017" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>Max Humidty (%)</t>
   </si>
@@ -437,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA44C44A-B841-4CA1-85CC-0FEA19ED582C}">
   <dimension ref="A1:N190"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
@@ -8831,8 +8832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE57EC2-6C7A-4B5A-95DB-14435C068DB8}">
   <dimension ref="A1:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="E188" sqref="E188"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -17217,4 +17218,8219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E48358-4F71-4126-BFD0-6A6D89CA3EE3}">
+  <dimension ref="A1:N186"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B164" workbookViewId="0">
+      <selection activeCell="H190" sqref="H190"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.9453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.9453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.20703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.62890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.83984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.26171875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3">
+        <v>42826</v>
+      </c>
+      <c r="B2">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <v>63.8</v>
+      </c>
+      <c r="D2">
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>48</v>
+      </c>
+      <c r="F2">
+        <v>46.6</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>83</v>
+      </c>
+      <c r="I2">
+        <v>56.4</v>
+      </c>
+      <c r="J2">
+        <v>34</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3">
+        <v>42827</v>
+      </c>
+      <c r="B3">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="D3">
+        <v>55</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>46.9</v>
+      </c>
+      <c r="G3">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>69</v>
+      </c>
+      <c r="I3">
+        <v>49.1</v>
+      </c>
+      <c r="J3">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>7.8</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
+        <v>42828</v>
+      </c>
+      <c r="B4">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>64.8</v>
+      </c>
+      <c r="D4">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>66</v>
+      </c>
+      <c r="F4">
+        <v>60.2</v>
+      </c>
+      <c r="G4">
+        <v>53</v>
+      </c>
+      <c r="H4">
+        <v>96</v>
+      </c>
+      <c r="I4">
+        <v>85.4</v>
+      </c>
+      <c r="J4">
+        <v>57</v>
+      </c>
+      <c r="K4">
+        <v>29</v>
+      </c>
+      <c r="L4">
+        <v>13.7</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>42829</v>
+      </c>
+      <c r="B5">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>55.5</v>
+      </c>
+      <c r="G5">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>67.8</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>42830</v>
+      </c>
+      <c r="B6">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>63.4</v>
+      </c>
+      <c r="D6">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>61</v>
+      </c>
+      <c r="G6">
+        <v>52</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>92.1</v>
+      </c>
+      <c r="J6">
+        <v>59</v>
+      </c>
+      <c r="K6">
+        <v>24</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>42831</v>
+      </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>52.9</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>37.9</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>78</v>
+      </c>
+      <c r="I7">
+        <v>57.2</v>
+      </c>
+      <c r="J7">
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <v>28</v>
+      </c>
+      <c r="L7">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
+        <v>42832</v>
+      </c>
+      <c r="B8">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>52.9</v>
+      </c>
+      <c r="D8">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>31.8</v>
+      </c>
+      <c r="G8">
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <v>71</v>
+      </c>
+      <c r="I8">
+        <v>47</v>
+      </c>
+      <c r="J8">
+        <v>29</v>
+      </c>
+      <c r="K8">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>13.8</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
+        <v>42833</v>
+      </c>
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>56.2</v>
+      </c>
+      <c r="D9">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>27.3</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="J9">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>6.5</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
+        <v>42834</v>
+      </c>
+      <c r="B10">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>33.5</v>
+      </c>
+      <c r="G10">
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <v>66</v>
+      </c>
+      <c r="I10">
+        <v>37.5</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
+        <v>42835</v>
+      </c>
+      <c r="B11">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>66.8</v>
+      </c>
+      <c r="D11">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>49</v>
+      </c>
+      <c r="F11">
+        <v>44.8</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <v>77</v>
+      </c>
+      <c r="I11">
+        <v>47.6</v>
+      </c>
+      <c r="J11">
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>6.4</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
+        <v>42836</v>
+      </c>
+      <c r="B12">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <v>68.7</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>57</v>
+      </c>
+      <c r="F12">
+        <v>50.9</v>
+      </c>
+      <c r="G12">
+        <v>48</v>
+      </c>
+      <c r="H12">
+        <v>81</v>
+      </c>
+      <c r="I12">
+        <v>55.1</v>
+      </c>
+      <c r="J12">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
+        <v>42837</v>
+      </c>
+      <c r="B13">
+        <v>79</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>57</v>
+      </c>
+      <c r="F13">
+        <v>52.7</v>
+      </c>
+      <c r="G13">
+        <v>47</v>
+      </c>
+      <c r="H13">
+        <v>78</v>
+      </c>
+      <c r="I13">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>4.7</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
+        <v>42838</v>
+      </c>
+      <c r="B14">
+        <v>82</v>
+      </c>
+      <c r="C14">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="D14">
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>53.5</v>
+      </c>
+      <c r="G14">
+        <v>49</v>
+      </c>
+      <c r="H14">
+        <v>78</v>
+      </c>
+      <c r="I14">
+        <v>55.3</v>
+      </c>
+      <c r="J14">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>3.8</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3">
+        <v>42839</v>
+      </c>
+      <c r="B15">
+        <v>81</v>
+      </c>
+      <c r="C15">
+        <v>71.7</v>
+      </c>
+      <c r="D15">
+        <v>62</v>
+      </c>
+      <c r="E15">
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <v>54.1</v>
+      </c>
+      <c r="G15">
+        <v>52</v>
+      </c>
+      <c r="H15">
+        <v>80</v>
+      </c>
+      <c r="I15">
+        <v>55.9</v>
+      </c>
+      <c r="J15">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>4.8</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3">
+        <v>42840</v>
+      </c>
+      <c r="B16">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <v>53.8</v>
+      </c>
+      <c r="G16">
+        <v>49</v>
+      </c>
+      <c r="H16">
+        <v>87</v>
+      </c>
+      <c r="I16">
+        <v>57.7</v>
+      </c>
+      <c r="J16">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
+        <v>42841</v>
+      </c>
+      <c r="B17">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>71</v>
+      </c>
+      <c r="D17">
+        <v>62</v>
+      </c>
+      <c r="E17">
+        <v>59</v>
+      </c>
+      <c r="F17">
+        <v>54.3</v>
+      </c>
+      <c r="G17">
+        <v>51</v>
+      </c>
+      <c r="H17">
+        <v>86</v>
+      </c>
+      <c r="I17">
+        <v>57.4</v>
+      </c>
+      <c r="J17">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
+        <v>42842</v>
+      </c>
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>71</v>
+      </c>
+      <c r="D18">
+        <v>62</v>
+      </c>
+      <c r="E18">
+        <v>63</v>
+      </c>
+      <c r="F18">
+        <v>58.8</v>
+      </c>
+      <c r="G18">
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <v>84</v>
+      </c>
+      <c r="I18">
+        <v>66</v>
+      </c>
+      <c r="J18">
+        <v>44</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>5.7</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3">
+        <v>42843</v>
+      </c>
+      <c r="B19">
+        <v>79</v>
+      </c>
+      <c r="C19">
+        <v>71</v>
+      </c>
+      <c r="D19">
+        <v>64</v>
+      </c>
+      <c r="E19">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>61</v>
+      </c>
+      <c r="G19">
+        <v>58</v>
+      </c>
+      <c r="H19">
+        <v>90</v>
+      </c>
+      <c r="I19">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
+      </c>
+      <c r="K19">
+        <v>21</v>
+      </c>
+      <c r="L19">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
+        <v>42844</v>
+      </c>
+      <c r="B20">
+        <v>78</v>
+      </c>
+      <c r="C20">
+        <v>69.3</v>
+      </c>
+      <c r="D20">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+      <c r="F20">
+        <v>62</v>
+      </c>
+      <c r="G20">
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <v>93</v>
+      </c>
+      <c r="I20">
+        <v>79.3</v>
+      </c>
+      <c r="J20">
+        <v>54</v>
+      </c>
+      <c r="K20">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <v>9.1</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3">
+        <v>42845</v>
+      </c>
+      <c r="B21">
+        <v>84</v>
+      </c>
+      <c r="C21">
+        <v>70.8</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+      <c r="F21">
+        <v>62.4</v>
+      </c>
+      <c r="G21">
+        <v>58</v>
+      </c>
+      <c r="H21">
+        <v>96</v>
+      </c>
+      <c r="I21">
+        <v>76.7</v>
+      </c>
+      <c r="J21">
+        <v>43</v>
+      </c>
+      <c r="K21">
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <v>6.8</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3">
+        <v>42846</v>
+      </c>
+      <c r="B22">
+        <v>83</v>
+      </c>
+      <c r="C22">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="D22">
+        <v>64</v>
+      </c>
+      <c r="E22">
+        <v>63</v>
+      </c>
+      <c r="F22">
+        <v>59.5</v>
+      </c>
+      <c r="G22">
+        <v>56</v>
+      </c>
+      <c r="H22">
+        <v>90</v>
+      </c>
+      <c r="I22">
+        <v>61.5</v>
+      </c>
+      <c r="J22">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>13</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3">
+        <v>42847</v>
+      </c>
+      <c r="B23">
+        <v>81</v>
+      </c>
+      <c r="C23">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="D23">
+        <v>62</v>
+      </c>
+      <c r="E23">
+        <v>59</v>
+      </c>
+      <c r="F23">
+        <v>55.4</v>
+      </c>
+      <c r="G23">
+        <v>48</v>
+      </c>
+      <c r="H23">
+        <v>84</v>
+      </c>
+      <c r="I23">
+        <v>57.2</v>
+      </c>
+      <c r="J23">
+        <v>32</v>
+      </c>
+      <c r="K23">
+        <v>15</v>
+      </c>
+      <c r="L23">
+        <v>8.6</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3">
+        <v>42848</v>
+      </c>
+      <c r="B24">
+        <v>72</v>
+      </c>
+      <c r="C24">
+        <v>63.3</v>
+      </c>
+      <c r="D24">
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <v>66</v>
+      </c>
+      <c r="F24">
+        <v>59.8</v>
+      </c>
+      <c r="G24">
+        <v>53</v>
+      </c>
+      <c r="H24">
+        <v>97</v>
+      </c>
+      <c r="I24">
+        <v>88.8</v>
+      </c>
+      <c r="J24">
+        <v>64</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
+        <v>42849</v>
+      </c>
+      <c r="B25">
+        <v>65</v>
+      </c>
+      <c r="C25">
+        <v>57.1</v>
+      </c>
+      <c r="D25">
+        <v>52</v>
+      </c>
+      <c r="E25">
+        <v>59</v>
+      </c>
+      <c r="F25">
+        <v>54.2</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25">
+        <v>97</v>
+      </c>
+      <c r="I25">
+        <v>90.3</v>
+      </c>
+      <c r="J25">
+        <v>78</v>
+      </c>
+      <c r="K25">
+        <v>13</v>
+      </c>
+      <c r="L25">
+        <v>8.9</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3">
+        <v>42850</v>
+      </c>
+      <c r="B26">
+        <v>77</v>
+      </c>
+      <c r="C26">
+        <v>65.5</v>
+      </c>
+      <c r="D26">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>58</v>
+      </c>
+      <c r="F26">
+        <v>56.6</v>
+      </c>
+      <c r="G26">
+        <v>55</v>
+      </c>
+      <c r="H26">
+        <v>94</v>
+      </c>
+      <c r="I26">
+        <v>75.2</v>
+      </c>
+      <c r="J26">
+        <v>48</v>
+      </c>
+      <c r="K26">
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <v>8.6</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3">
+        <v>42851</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>69.7</v>
+      </c>
+      <c r="D27">
+        <v>59</v>
+      </c>
+      <c r="E27">
+        <v>58</v>
+      </c>
+      <c r="F27">
+        <v>56.6</v>
+      </c>
+      <c r="G27">
+        <v>55</v>
+      </c>
+      <c r="H27">
+        <v>87</v>
+      </c>
+      <c r="I27">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="J27">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>16</v>
+      </c>
+      <c r="L27">
+        <v>7.7</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3">
+        <v>42852</v>
+      </c>
+      <c r="B28">
+        <v>79</v>
+      </c>
+      <c r="C28">
+        <v>70.2</v>
+      </c>
+      <c r="D28">
+        <v>64</v>
+      </c>
+      <c r="E28">
+        <v>70</v>
+      </c>
+      <c r="F28">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="G28">
+        <v>56</v>
+      </c>
+      <c r="H28">
+        <v>96</v>
+      </c>
+      <c r="I28">
+        <v>84</v>
+      </c>
+      <c r="J28">
+        <v>66</v>
+      </c>
+      <c r="K28">
+        <v>17</v>
+      </c>
+      <c r="L28">
+        <v>10.9</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3">
+        <v>42853</v>
+      </c>
+      <c r="B29">
+        <v>84</v>
+      </c>
+      <c r="C29">
+        <v>74.5</v>
+      </c>
+      <c r="D29">
+        <v>67</v>
+      </c>
+      <c r="E29">
+        <v>69</v>
+      </c>
+      <c r="F29">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="G29">
+        <v>65</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>79.2</v>
+      </c>
+      <c r="J29">
+        <v>53</v>
+      </c>
+      <c r="K29">
+        <v>14</v>
+      </c>
+      <c r="L29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3">
+        <v>42854</v>
+      </c>
+      <c r="B30">
+        <v>86</v>
+      </c>
+      <c r="C30">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <v>69</v>
+      </c>
+      <c r="E30">
+        <v>68</v>
+      </c>
+      <c r="F30">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G30">
+        <v>64</v>
+      </c>
+      <c r="H30">
+        <v>90</v>
+      </c>
+      <c r="I30">
+        <v>68.8</v>
+      </c>
+      <c r="J30">
+        <v>48</v>
+      </c>
+      <c r="K30">
+        <v>15</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3">
+        <v>42855</v>
+      </c>
+      <c r="B31">
+        <v>82</v>
+      </c>
+      <c r="C31">
+        <v>73.8</v>
+      </c>
+      <c r="D31">
+        <v>69</v>
+      </c>
+      <c r="E31">
+        <v>68</v>
+      </c>
+      <c r="F31">
+        <v>65.8</v>
+      </c>
+      <c r="G31">
+        <v>62</v>
+      </c>
+      <c r="H31">
+        <v>93</v>
+      </c>
+      <c r="I31">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="J31">
+        <v>51</v>
+      </c>
+      <c r="K31">
+        <v>15</v>
+      </c>
+      <c r="L31">
+        <v>9.5</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3">
+        <v>42856</v>
+      </c>
+      <c r="B32">
+        <v>74</v>
+      </c>
+      <c r="C32">
+        <v>69.3</v>
+      </c>
+      <c r="D32">
+        <v>61</v>
+      </c>
+      <c r="E32">
+        <v>68</v>
+      </c>
+      <c r="F32">
+        <v>56.6</v>
+      </c>
+      <c r="G32">
+        <v>38</v>
+      </c>
+      <c r="H32">
+        <v>93</v>
+      </c>
+      <c r="I32">
+        <v>67.2</v>
+      </c>
+      <c r="J32">
+        <v>34</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <v>12.9</v>
+      </c>
+      <c r="M32">
+        <v>7</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3">
+        <v>42857</v>
+      </c>
+      <c r="B33">
+        <v>79</v>
+      </c>
+      <c r="C33">
+        <v>66.3</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>47</v>
+      </c>
+      <c r="F33">
+        <v>40.5</v>
+      </c>
+      <c r="G33">
+        <v>34</v>
+      </c>
+      <c r="H33">
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <v>42.3</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <v>14</v>
+      </c>
+      <c r="L33">
+        <v>7.5</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3">
+        <v>42858</v>
+      </c>
+      <c r="B34">
+        <v>83</v>
+      </c>
+      <c r="C34">
+        <v>72.5</v>
+      </c>
+      <c r="D34">
+        <v>58</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>45.1</v>
+      </c>
+      <c r="G34">
+        <v>41</v>
+      </c>
+      <c r="H34">
+        <v>67</v>
+      </c>
+      <c r="I34">
+        <v>39.5</v>
+      </c>
+      <c r="J34">
+        <v>23</v>
+      </c>
+      <c r="K34">
+        <v>13</v>
+      </c>
+      <c r="L34">
+        <v>5.4</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3">
+        <v>42859</v>
+      </c>
+      <c r="B35">
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <v>63.9</v>
+      </c>
+      <c r="D35">
+        <v>57</v>
+      </c>
+      <c r="E35">
+        <v>65</v>
+      </c>
+      <c r="F35">
+        <v>59.4</v>
+      </c>
+      <c r="G35">
+        <v>48</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <v>87.1</v>
+      </c>
+      <c r="J35">
+        <v>43</v>
+      </c>
+      <c r="K35">
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <v>11.8</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3">
+        <v>42860</v>
+      </c>
+      <c r="B36">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>51.2</v>
+      </c>
+      <c r="D36">
+        <v>49</v>
+      </c>
+      <c r="E36">
+        <v>53</v>
+      </c>
+      <c r="F36">
+        <v>48.1</v>
+      </c>
+      <c r="G36">
+        <v>43</v>
+      </c>
+      <c r="H36">
+        <v>97</v>
+      </c>
+      <c r="I36">
+        <v>89.3</v>
+      </c>
+      <c r="J36">
+        <v>77</v>
+      </c>
+      <c r="K36">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>11.4</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3">
+        <v>42861</v>
+      </c>
+      <c r="B37">
+        <v>72</v>
+      </c>
+      <c r="C37">
+        <v>57.2</v>
+      </c>
+      <c r="D37">
+        <v>45</v>
+      </c>
+      <c r="E37">
+        <v>53</v>
+      </c>
+      <c r="F37">
+        <v>44.1</v>
+      </c>
+      <c r="G37">
+        <v>39</v>
+      </c>
+      <c r="H37">
+        <v>97</v>
+      </c>
+      <c r="I37">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="J37">
+        <v>33</v>
+      </c>
+      <c r="K37">
+        <v>21</v>
+      </c>
+      <c r="L37">
+        <v>14.1</v>
+      </c>
+      <c r="M37">
+        <v>9</v>
+      </c>
+      <c r="N37">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="3">
+        <v>42862</v>
+      </c>
+      <c r="B38">
+        <v>70</v>
+      </c>
+      <c r="C38">
+        <v>60.5</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+      <c r="F38">
+        <v>41</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="H38">
+        <v>93</v>
+      </c>
+      <c r="I38">
+        <v>53.8</v>
+      </c>
+      <c r="J38">
+        <v>23</v>
+      </c>
+      <c r="K38">
+        <v>16</v>
+      </c>
+      <c r="L38">
+        <v>10.3</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3">
+        <v>42863</v>
+      </c>
+      <c r="B39">
+        <v>78</v>
+      </c>
+      <c r="C39">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="D39">
+        <v>51</v>
+      </c>
+      <c r="E39">
+        <v>49</v>
+      </c>
+      <c r="F39">
+        <v>45.3</v>
+      </c>
+      <c r="G39">
+        <v>42</v>
+      </c>
+      <c r="H39">
+        <v>74</v>
+      </c>
+      <c r="I39">
+        <v>50.3</v>
+      </c>
+      <c r="J39">
+        <v>30</v>
+      </c>
+      <c r="K39">
+        <v>15</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3">
+        <v>42864</v>
+      </c>
+      <c r="B40">
+        <v>85</v>
+      </c>
+      <c r="C40">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="D40">
+        <v>59</v>
+      </c>
+      <c r="E40">
+        <v>57</v>
+      </c>
+      <c r="F40">
+        <v>52.4</v>
+      </c>
+      <c r="G40">
+        <v>49</v>
+      </c>
+      <c r="H40">
+        <v>72</v>
+      </c>
+      <c r="I40">
+        <v>50</v>
+      </c>
+      <c r="J40">
+        <v>31</v>
+      </c>
+      <c r="K40">
+        <v>15</v>
+      </c>
+      <c r="L40">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="3">
+        <v>42865</v>
+      </c>
+      <c r="B41">
+        <v>86</v>
+      </c>
+      <c r="C41">
+        <v>75.2</v>
+      </c>
+      <c r="D41">
+        <v>63</v>
+      </c>
+      <c r="E41">
+        <v>61</v>
+      </c>
+      <c r="F41">
+        <v>58.3</v>
+      </c>
+      <c r="G41">
+        <v>55</v>
+      </c>
+      <c r="H41">
+        <v>78</v>
+      </c>
+      <c r="I41">
+        <v>57.2</v>
+      </c>
+      <c r="J41">
+        <v>38</v>
+      </c>
+      <c r="K41">
+        <v>12</v>
+      </c>
+      <c r="L41">
+        <v>7.5</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="3">
+        <v>42866</v>
+      </c>
+      <c r="B42">
+        <v>86</v>
+      </c>
+      <c r="C42">
+        <v>75.8</v>
+      </c>
+      <c r="D42">
+        <v>66</v>
+      </c>
+      <c r="E42">
+        <v>64</v>
+      </c>
+      <c r="F42">
+        <v>60.3</v>
+      </c>
+      <c r="G42">
+        <v>57</v>
+      </c>
+      <c r="H42">
+        <v>81</v>
+      </c>
+      <c r="I42">
+        <v>60.6</v>
+      </c>
+      <c r="J42">
+        <v>38</v>
+      </c>
+      <c r="K42">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>9.9</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="3">
+        <v>42867</v>
+      </c>
+      <c r="B43">
+        <v>82</v>
+      </c>
+      <c r="C43">
+        <v>71.8</v>
+      </c>
+      <c r="D43">
+        <v>65</v>
+      </c>
+      <c r="E43">
+        <v>64</v>
+      </c>
+      <c r="F43">
+        <v>62.2</v>
+      </c>
+      <c r="G43">
+        <v>58</v>
+      </c>
+      <c r="H43">
+        <v>93</v>
+      </c>
+      <c r="I43">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="J43">
+        <v>44</v>
+      </c>
+      <c r="K43">
+        <v>14</v>
+      </c>
+      <c r="L43">
+        <v>7.8</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3">
+        <v>42868</v>
+      </c>
+      <c r="B44">
+        <v>77</v>
+      </c>
+      <c r="C44">
+        <v>69.8</v>
+      </c>
+      <c r="D44">
+        <v>63</v>
+      </c>
+      <c r="E44">
+        <v>65</v>
+      </c>
+      <c r="F44">
+        <v>60.3</v>
+      </c>
+      <c r="G44">
+        <v>53</v>
+      </c>
+      <c r="H44">
+        <v>93</v>
+      </c>
+      <c r="I44">
+        <v>72.7</v>
+      </c>
+      <c r="J44">
+        <v>54</v>
+      </c>
+      <c r="K44">
+        <v>15</v>
+      </c>
+      <c r="L44">
+        <v>6.3</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="3">
+        <v>42869</v>
+      </c>
+      <c r="B45">
+        <v>83</v>
+      </c>
+      <c r="C45">
+        <v>71.2</v>
+      </c>
+      <c r="D45">
+        <v>62</v>
+      </c>
+      <c r="E45">
+        <v>61</v>
+      </c>
+      <c r="F45">
+        <v>53.5</v>
+      </c>
+      <c r="G45">
+        <v>49</v>
+      </c>
+      <c r="H45">
+        <v>93</v>
+      </c>
+      <c r="I45">
+        <v>56.7</v>
+      </c>
+      <c r="J45">
+        <v>31</v>
+      </c>
+      <c r="K45">
+        <v>12</v>
+      </c>
+      <c r="L45">
+        <v>5.2</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="3">
+        <v>42870</v>
+      </c>
+      <c r="B46">
+        <v>87</v>
+      </c>
+      <c r="C46">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="D46">
+        <v>64</v>
+      </c>
+      <c r="E46">
+        <v>60</v>
+      </c>
+      <c r="F46">
+        <v>56.7</v>
+      </c>
+      <c r="G46">
+        <v>55</v>
+      </c>
+      <c r="H46">
+        <v>76</v>
+      </c>
+      <c r="I46">
+        <v>53.3</v>
+      </c>
+      <c r="J46">
+        <v>33</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>4.7</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="3">
+        <v>42871</v>
+      </c>
+      <c r="B47">
+        <v>89</v>
+      </c>
+      <c r="C47">
+        <v>78.8</v>
+      </c>
+      <c r="D47">
+        <v>66</v>
+      </c>
+      <c r="E47">
+        <v>62</v>
+      </c>
+      <c r="F47">
+        <v>58.4</v>
+      </c>
+      <c r="G47">
+        <v>54</v>
+      </c>
+      <c r="H47">
+        <v>81</v>
+      </c>
+      <c r="I47">
+        <v>52.2</v>
+      </c>
+      <c r="J47">
+        <v>30</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>4.5</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3">
+        <v>42872</v>
+      </c>
+      <c r="B48">
+        <v>88</v>
+      </c>
+      <c r="C48">
+        <v>78.8</v>
+      </c>
+      <c r="D48">
+        <v>67</v>
+      </c>
+      <c r="E48">
+        <v>65</v>
+      </c>
+      <c r="F48">
+        <v>58.4</v>
+      </c>
+      <c r="G48">
+        <v>52</v>
+      </c>
+      <c r="H48">
+        <v>76</v>
+      </c>
+      <c r="I48">
+        <v>51.6</v>
+      </c>
+      <c r="J48">
+        <v>32</v>
+      </c>
+      <c r="K48">
+        <v>14</v>
+      </c>
+      <c r="L48">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="3">
+        <v>42873</v>
+      </c>
+      <c r="B49">
+        <v>88</v>
+      </c>
+      <c r="C49">
+        <v>80.3</v>
+      </c>
+      <c r="D49">
+        <v>73</v>
+      </c>
+      <c r="E49">
+        <v>68</v>
+      </c>
+      <c r="F49">
+        <v>64.2</v>
+      </c>
+      <c r="G49">
+        <v>60</v>
+      </c>
+      <c r="H49">
+        <v>79</v>
+      </c>
+      <c r="I49">
+        <v>58.9</v>
+      </c>
+      <c r="J49">
+        <v>43</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>7.1</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="3">
+        <v>42874</v>
+      </c>
+      <c r="B50">
+        <v>89</v>
+      </c>
+      <c r="C50">
+        <v>80</v>
+      </c>
+      <c r="D50">
+        <v>71</v>
+      </c>
+      <c r="E50">
+        <v>65</v>
+      </c>
+      <c r="F50">
+        <v>63</v>
+      </c>
+      <c r="G50">
+        <v>61</v>
+      </c>
+      <c r="H50">
+        <v>73</v>
+      </c>
+      <c r="I50">
+        <v>57.3</v>
+      </c>
+      <c r="J50">
+        <v>40</v>
+      </c>
+      <c r="K50">
+        <v>15</v>
+      </c>
+      <c r="L50">
+        <v>6.8</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="3">
+        <v>42875</v>
+      </c>
+      <c r="B51">
+        <v>85</v>
+      </c>
+      <c r="C51">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D51">
+        <v>69</v>
+      </c>
+      <c r="E51">
+        <v>71</v>
+      </c>
+      <c r="F51">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G51">
+        <v>61</v>
+      </c>
+      <c r="H51">
+        <v>87</v>
+      </c>
+      <c r="I51">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="J51">
+        <v>57</v>
+      </c>
+      <c r="K51">
+        <v>31</v>
+      </c>
+      <c r="L51">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3">
+        <v>42876</v>
+      </c>
+      <c r="B52">
+        <v>83</v>
+      </c>
+      <c r="C52">
+        <v>72.5</v>
+      </c>
+      <c r="D52">
+        <v>68</v>
+      </c>
+      <c r="E52">
+        <v>72</v>
+      </c>
+      <c r="F52">
+        <v>67.7</v>
+      </c>
+      <c r="G52">
+        <v>65</v>
+      </c>
+      <c r="H52">
+        <v>97</v>
+      </c>
+      <c r="I52">
+        <v>85.6</v>
+      </c>
+      <c r="J52">
+        <v>58</v>
+      </c>
+      <c r="K52">
+        <v>24</v>
+      </c>
+      <c r="L52">
+        <v>7.8</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="3">
+        <v>42877</v>
+      </c>
+      <c r="B53">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>72.3</v>
+      </c>
+      <c r="D53">
+        <v>69</v>
+      </c>
+      <c r="E53">
+        <v>71</v>
+      </c>
+      <c r="F53">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="G53">
+        <v>64</v>
+      </c>
+      <c r="H53">
+        <v>96</v>
+      </c>
+      <c r="I53">
+        <v>87</v>
+      </c>
+      <c r="J53">
+        <v>66</v>
+      </c>
+      <c r="K53">
+        <v>12</v>
+      </c>
+      <c r="L53">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="3">
+        <v>42878</v>
+      </c>
+      <c r="B54">
+        <v>73</v>
+      </c>
+      <c r="C54">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="D54">
+        <v>66</v>
+      </c>
+      <c r="E54">
+        <v>68</v>
+      </c>
+      <c r="F54">
+        <v>65.8</v>
+      </c>
+      <c r="G54">
+        <v>60</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>91.7</v>
+      </c>
+      <c r="J54">
+        <v>73</v>
+      </c>
+      <c r="K54">
+        <v>16</v>
+      </c>
+      <c r="L54">
+        <v>5.7</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="3">
+        <v>42879</v>
+      </c>
+      <c r="B55">
+        <v>77</v>
+      </c>
+      <c r="C55">
+        <v>68.7</v>
+      </c>
+      <c r="D55">
+        <v>60</v>
+      </c>
+      <c r="E55">
+        <v>66</v>
+      </c>
+      <c r="F55">
+        <v>61.1</v>
+      </c>
+      <c r="G55">
+        <v>50</v>
+      </c>
+      <c r="H55">
+        <v>97</v>
+      </c>
+      <c r="I55">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="J55">
+        <v>48</v>
+      </c>
+      <c r="K55">
+        <v>21</v>
+      </c>
+      <c r="L55">
+        <v>10.3</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="3">
+        <v>42880</v>
+      </c>
+      <c r="B56">
+        <v>72</v>
+      </c>
+      <c r="C56">
+        <v>62</v>
+      </c>
+      <c r="D56">
+        <v>56</v>
+      </c>
+      <c r="E56">
+        <v>55</v>
+      </c>
+      <c r="F56">
+        <v>52.6</v>
+      </c>
+      <c r="G56">
+        <v>49</v>
+      </c>
+      <c r="H56">
+        <v>93</v>
+      </c>
+      <c r="I56">
+        <v>73.8</v>
+      </c>
+      <c r="J56">
+        <v>44</v>
+      </c>
+      <c r="K56">
+        <v>17</v>
+      </c>
+      <c r="L56">
+        <v>11.4</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="3">
+        <v>42881</v>
+      </c>
+      <c r="B57">
+        <v>83</v>
+      </c>
+      <c r="C57">
+        <v>71</v>
+      </c>
+      <c r="D57">
+        <v>57</v>
+      </c>
+      <c r="E57">
+        <v>61</v>
+      </c>
+      <c r="F57">
+        <v>55.7</v>
+      </c>
+      <c r="G57">
+        <v>51</v>
+      </c>
+      <c r="H57">
+        <v>81</v>
+      </c>
+      <c r="I57">
+        <v>60.3</v>
+      </c>
+      <c r="J57">
+        <v>44</v>
+      </c>
+      <c r="K57">
+        <v>14</v>
+      </c>
+      <c r="L57">
+        <v>7.9</v>
+      </c>
+      <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="3">
+        <v>42882</v>
+      </c>
+      <c r="B58">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>75</v>
+      </c>
+      <c r="D58">
+        <v>66</v>
+      </c>
+      <c r="E58">
+        <v>70</v>
+      </c>
+      <c r="F58">
+        <v>64.7</v>
+      </c>
+      <c r="G58">
+        <v>60</v>
+      </c>
+      <c r="H58">
+        <v>87</v>
+      </c>
+      <c r="I58">
+        <v>71.2</v>
+      </c>
+      <c r="J58">
+        <v>56</v>
+      </c>
+      <c r="K58">
+        <v>14</v>
+      </c>
+      <c r="L58">
+        <v>7.3</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="3">
+        <v>42883</v>
+      </c>
+      <c r="B59">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>73</v>
+      </c>
+      <c r="D59">
+        <v>65</v>
+      </c>
+      <c r="E59">
+        <v>70</v>
+      </c>
+      <c r="F59">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="G59">
+        <v>62</v>
+      </c>
+      <c r="H59">
+        <v>97</v>
+      </c>
+      <c r="I59">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="J59">
+        <v>53</v>
+      </c>
+      <c r="K59">
+        <v>28</v>
+      </c>
+      <c r="L59">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="3">
+        <v>42884</v>
+      </c>
+      <c r="B60">
+        <v>83</v>
+      </c>
+      <c r="C60">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D60">
+        <v>69</v>
+      </c>
+      <c r="E60">
+        <v>70</v>
+      </c>
+      <c r="F60">
+        <v>67.3</v>
+      </c>
+      <c r="G60">
+        <v>64</v>
+      </c>
+      <c r="H60">
+        <v>93</v>
+      </c>
+      <c r="I60">
+        <v>81.3</v>
+      </c>
+      <c r="J60">
+        <v>60</v>
+      </c>
+      <c r="K60">
+        <v>21</v>
+      </c>
+      <c r="L60">
+        <v>6.7</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="3">
+        <v>42885</v>
+      </c>
+      <c r="B61">
+        <v>76</v>
+      </c>
+      <c r="C61">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="D61">
+        <v>68</v>
+      </c>
+      <c r="E61">
+        <v>69</v>
+      </c>
+      <c r="F61">
+        <v>66.8</v>
+      </c>
+      <c r="G61">
+        <v>65</v>
+      </c>
+      <c r="H61">
+        <v>93</v>
+      </c>
+      <c r="I61">
+        <v>86.8</v>
+      </c>
+      <c r="J61">
+        <v>73</v>
+      </c>
+      <c r="K61">
+        <v>17</v>
+      </c>
+      <c r="L61">
+        <v>6.5</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="3">
+        <v>42886</v>
+      </c>
+      <c r="B62">
+        <v>83</v>
+      </c>
+      <c r="C62">
+        <v>72.5</v>
+      </c>
+      <c r="D62">
+        <v>67</v>
+      </c>
+      <c r="E62">
+        <v>67</v>
+      </c>
+      <c r="F62">
+        <v>64.7</v>
+      </c>
+      <c r="G62">
+        <v>62</v>
+      </c>
+      <c r="H62">
+        <v>93</v>
+      </c>
+      <c r="I62">
+        <v>78</v>
+      </c>
+      <c r="J62">
+        <v>51</v>
+      </c>
+      <c r="K62">
+        <v>10</v>
+      </c>
+      <c r="L62">
+        <v>5.6</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="3">
+        <v>42887</v>
+      </c>
+      <c r="B63">
+        <v>85</v>
+      </c>
+      <c r="C63">
+        <v>74.3</v>
+      </c>
+      <c r="D63">
+        <v>68</v>
+      </c>
+      <c r="E63">
+        <v>68</v>
+      </c>
+      <c r="F63">
+        <v>65.5</v>
+      </c>
+      <c r="G63">
+        <v>58</v>
+      </c>
+      <c r="H63">
+        <v>96</v>
+      </c>
+      <c r="I63">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="J63">
+        <v>42</v>
+      </c>
+      <c r="K63">
+        <v>10</v>
+      </c>
+      <c r="L63">
+        <v>5.3</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="3">
+        <v>42888</v>
+      </c>
+      <c r="B64">
+        <v>87</v>
+      </c>
+      <c r="C64">
+        <v>77</v>
+      </c>
+      <c r="D64">
+        <v>68</v>
+      </c>
+      <c r="E64">
+        <v>66</v>
+      </c>
+      <c r="F64">
+        <v>62.5</v>
+      </c>
+      <c r="G64">
+        <v>55</v>
+      </c>
+      <c r="H64">
+        <v>93</v>
+      </c>
+      <c r="I64">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="J64">
+        <v>35</v>
+      </c>
+      <c r="K64">
+        <v>12</v>
+      </c>
+      <c r="L64">
+        <v>5.3</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="3">
+        <v>42889</v>
+      </c>
+      <c r="B65">
+        <v>87</v>
+      </c>
+      <c r="C65">
+        <v>78.3</v>
+      </c>
+      <c r="D65">
+        <v>69</v>
+      </c>
+      <c r="E65">
+        <v>69</v>
+      </c>
+      <c r="F65">
+        <v>65.2</v>
+      </c>
+      <c r="G65">
+        <v>63</v>
+      </c>
+      <c r="H65">
+        <v>87</v>
+      </c>
+      <c r="I65">
+        <v>65.2</v>
+      </c>
+      <c r="J65">
+        <v>44</v>
+      </c>
+      <c r="K65">
+        <v>10</v>
+      </c>
+      <c r="L65">
+        <v>3.5</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="3">
+        <v>42890</v>
+      </c>
+      <c r="B66">
+        <v>81</v>
+      </c>
+      <c r="C66">
+        <v>74.2</v>
+      </c>
+      <c r="D66">
+        <v>71</v>
+      </c>
+      <c r="E66">
+        <v>72</v>
+      </c>
+      <c r="F66">
+        <v>69.5</v>
+      </c>
+      <c r="G66">
+        <v>67</v>
+      </c>
+      <c r="H66">
+        <v>96</v>
+      </c>
+      <c r="I66">
+        <v>85.4</v>
+      </c>
+      <c r="J66">
+        <v>69</v>
+      </c>
+      <c r="K66">
+        <v>13</v>
+      </c>
+      <c r="L66">
+        <v>6.3</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="3">
+        <v>42891</v>
+      </c>
+      <c r="B67">
+        <v>83</v>
+      </c>
+      <c r="C67">
+        <v>73.8</v>
+      </c>
+      <c r="D67">
+        <v>71</v>
+      </c>
+      <c r="E67">
+        <v>71</v>
+      </c>
+      <c r="F67">
+        <v>69.8</v>
+      </c>
+      <c r="G67">
+        <v>68</v>
+      </c>
+      <c r="H67">
+        <v>96</v>
+      </c>
+      <c r="I67">
+        <v>87.6</v>
+      </c>
+      <c r="J67">
+        <v>65</v>
+      </c>
+      <c r="K67">
+        <v>20</v>
+      </c>
+      <c r="L67">
+        <v>8</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="3">
+        <v>42892</v>
+      </c>
+      <c r="B68">
+        <v>78</v>
+      </c>
+      <c r="C68">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D68">
+        <v>70</v>
+      </c>
+      <c r="E68">
+        <v>72</v>
+      </c>
+      <c r="F68">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G68">
+        <v>67</v>
+      </c>
+      <c r="H68">
+        <v>97</v>
+      </c>
+      <c r="I68">
+        <v>86.9</v>
+      </c>
+      <c r="J68">
+        <v>74</v>
+      </c>
+      <c r="K68">
+        <v>12</v>
+      </c>
+      <c r="L68">
+        <v>4.2</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="3">
+        <v>42893</v>
+      </c>
+      <c r="B69">
+        <v>80</v>
+      </c>
+      <c r="C69">
+        <v>72.2</v>
+      </c>
+      <c r="D69">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <v>68</v>
+      </c>
+      <c r="F69">
+        <v>62.1</v>
+      </c>
+      <c r="G69">
+        <v>56</v>
+      </c>
+      <c r="H69">
+        <v>90</v>
+      </c>
+      <c r="I69">
+        <v>72.2</v>
+      </c>
+      <c r="J69">
+        <v>48</v>
+      </c>
+      <c r="K69">
+        <v>20</v>
+      </c>
+      <c r="L69">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="3">
+        <v>42894</v>
+      </c>
+      <c r="B70">
+        <v>79</v>
+      </c>
+      <c r="C70">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="D70">
+        <v>65</v>
+      </c>
+      <c r="E70">
+        <v>66</v>
+      </c>
+      <c r="F70">
+        <v>61.1</v>
+      </c>
+      <c r="G70">
+        <v>56</v>
+      </c>
+      <c r="H70">
+        <v>97</v>
+      </c>
+      <c r="I70">
+        <v>72.7</v>
+      </c>
+      <c r="J70">
+        <v>45</v>
+      </c>
+      <c r="K70">
+        <v>12</v>
+      </c>
+      <c r="L70">
+        <v>6.4</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="3">
+        <v>42895</v>
+      </c>
+      <c r="B71">
+        <v>82</v>
+      </c>
+      <c r="C71">
+        <v>74.3</v>
+      </c>
+      <c r="D71">
+        <v>65</v>
+      </c>
+      <c r="E71">
+        <v>64</v>
+      </c>
+      <c r="F71">
+        <v>59.8</v>
+      </c>
+      <c r="G71">
+        <v>55</v>
+      </c>
+      <c r="H71">
+        <v>90</v>
+      </c>
+      <c r="I71">
+        <v>62.8</v>
+      </c>
+      <c r="J71">
+        <v>39</v>
+      </c>
+      <c r="K71">
+        <v>12</v>
+      </c>
+      <c r="L71">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="3">
+        <v>42896</v>
+      </c>
+      <c r="B72">
+        <v>85</v>
+      </c>
+      <c r="C72">
+        <v>76.3</v>
+      </c>
+      <c r="D72">
+        <v>66</v>
+      </c>
+      <c r="E72">
+        <v>62</v>
+      </c>
+      <c r="F72">
+        <v>59.6</v>
+      </c>
+      <c r="G72">
+        <v>56</v>
+      </c>
+      <c r="H72">
+        <v>87</v>
+      </c>
+      <c r="I72">
+        <v>58</v>
+      </c>
+      <c r="J72">
+        <v>39</v>
+      </c>
+      <c r="K72">
+        <v>9</v>
+      </c>
+      <c r="L72">
+        <v>5.2</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="3">
+        <v>42897</v>
+      </c>
+      <c r="B73">
+        <v>87</v>
+      </c>
+      <c r="C73">
+        <v>77</v>
+      </c>
+      <c r="D73">
+        <v>69</v>
+      </c>
+      <c r="E73">
+        <v>70</v>
+      </c>
+      <c r="F73">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="G73">
+        <v>61</v>
+      </c>
+      <c r="H73">
+        <v>90</v>
+      </c>
+      <c r="I73">
+        <v>72.3</v>
+      </c>
+      <c r="J73">
+        <v>51</v>
+      </c>
+      <c r="K73">
+        <v>13</v>
+      </c>
+      <c r="L73">
+        <v>7.3</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="3">
+        <v>42898</v>
+      </c>
+      <c r="B74">
+        <v>84</v>
+      </c>
+      <c r="C74">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D74">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>73</v>
+      </c>
+      <c r="F74">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="G74">
+        <v>67</v>
+      </c>
+      <c r="H74">
+        <v>93</v>
+      </c>
+      <c r="I74">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="J74">
+        <v>60</v>
+      </c>
+      <c r="K74">
+        <v>15</v>
+      </c>
+      <c r="L74">
+        <v>6</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="3">
+        <v>42899</v>
+      </c>
+      <c r="B75">
+        <v>87</v>
+      </c>
+      <c r="C75">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="D75">
+        <v>72</v>
+      </c>
+      <c r="E75">
+        <v>70</v>
+      </c>
+      <c r="F75">
+        <v>67.5</v>
+      </c>
+      <c r="G75">
+        <v>64</v>
+      </c>
+      <c r="H75">
+        <v>93</v>
+      </c>
+      <c r="I75">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="J75">
+        <v>49</v>
+      </c>
+      <c r="K75">
+        <v>8</v>
+      </c>
+      <c r="L75">
+        <v>3.8</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="3">
+        <v>42900</v>
+      </c>
+      <c r="B76">
+        <v>88</v>
+      </c>
+      <c r="C76">
+        <v>79.2</v>
+      </c>
+      <c r="D76">
+        <v>71</v>
+      </c>
+      <c r="E76">
+        <v>71</v>
+      </c>
+      <c r="F76">
+        <v>67.8</v>
+      </c>
+      <c r="G76">
+        <v>65</v>
+      </c>
+      <c r="H76">
+        <v>93</v>
+      </c>
+      <c r="I76">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="J76">
+        <v>49</v>
+      </c>
+      <c r="K76">
+        <v>12</v>
+      </c>
+      <c r="L76">
+        <v>5.6</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="3">
+        <v>42901</v>
+      </c>
+      <c r="B77">
+        <v>90</v>
+      </c>
+      <c r="C77">
+        <v>78.5</v>
+      </c>
+      <c r="D77">
+        <v>70</v>
+      </c>
+      <c r="E77">
+        <v>72</v>
+      </c>
+      <c r="F77">
+        <v>67.8</v>
+      </c>
+      <c r="G77">
+        <v>64</v>
+      </c>
+      <c r="H77">
+        <v>87</v>
+      </c>
+      <c r="I77">
+        <v>71.2</v>
+      </c>
+      <c r="J77">
+        <v>48</v>
+      </c>
+      <c r="K77">
+        <v>36</v>
+      </c>
+      <c r="L77">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="3">
+        <v>42902</v>
+      </c>
+      <c r="B78">
+        <v>85</v>
+      </c>
+      <c r="C78">
+        <v>75.2</v>
+      </c>
+      <c r="D78">
+        <v>67</v>
+      </c>
+      <c r="E78">
+        <v>70</v>
+      </c>
+      <c r="F78">
+        <v>66.3</v>
+      </c>
+      <c r="G78">
+        <v>65</v>
+      </c>
+      <c r="H78">
+        <v>93</v>
+      </c>
+      <c r="I78">
+        <v>75.5</v>
+      </c>
+      <c r="J78">
+        <v>53</v>
+      </c>
+      <c r="K78">
+        <v>16</v>
+      </c>
+      <c r="L78">
+        <v>7.2</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="3">
+        <v>42903</v>
+      </c>
+      <c r="B79">
+        <v>89</v>
+      </c>
+      <c r="C79">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D79">
+        <v>69</v>
+      </c>
+      <c r="E79">
+        <v>71</v>
+      </c>
+      <c r="F79">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G79">
+        <v>67</v>
+      </c>
+      <c r="H79">
+        <v>97</v>
+      </c>
+      <c r="I79">
+        <v>78</v>
+      </c>
+      <c r="J79">
+        <v>48</v>
+      </c>
+      <c r="K79">
+        <v>21</v>
+      </c>
+      <c r="L79">
+        <v>5.4</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="3">
+        <v>42904</v>
+      </c>
+      <c r="B80">
+        <v>81</v>
+      </c>
+      <c r="C80">
+        <v>74.7</v>
+      </c>
+      <c r="D80">
+        <v>71</v>
+      </c>
+      <c r="E80">
+        <v>72</v>
+      </c>
+      <c r="F80">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="G80">
+        <v>68</v>
+      </c>
+      <c r="H80">
+        <v>93</v>
+      </c>
+      <c r="I80">
+        <v>85.7</v>
+      </c>
+      <c r="J80">
+        <v>69</v>
+      </c>
+      <c r="K80">
+        <v>15</v>
+      </c>
+      <c r="L80">
+        <v>6.8</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="3">
+        <v>42905</v>
+      </c>
+      <c r="B81">
+        <v>87</v>
+      </c>
+      <c r="C81">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="D81">
+        <v>72</v>
+      </c>
+      <c r="E81">
+        <v>72</v>
+      </c>
+      <c r="F81">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G81">
+        <v>68</v>
+      </c>
+      <c r="H81">
+        <v>97</v>
+      </c>
+      <c r="I81">
+        <v>79.8</v>
+      </c>
+      <c r="J81">
+        <v>55</v>
+      </c>
+      <c r="K81">
+        <v>13</v>
+      </c>
+      <c r="L81">
+        <v>6.9</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="3">
+        <v>42906</v>
+      </c>
+      <c r="B82">
+        <v>76</v>
+      </c>
+      <c r="C82">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="D82">
+        <v>71</v>
+      </c>
+      <c r="E82">
+        <v>73</v>
+      </c>
+      <c r="F82">
+        <v>71.3</v>
+      </c>
+      <c r="G82">
+        <v>70</v>
+      </c>
+      <c r="H82">
+        <v>97</v>
+      </c>
+      <c r="I82">
+        <v>93.9</v>
+      </c>
+      <c r="J82">
+        <v>84</v>
+      </c>
+      <c r="K82">
+        <v>14</v>
+      </c>
+      <c r="L82">
+        <v>6.3</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="3">
+        <v>42907</v>
+      </c>
+      <c r="B83">
+        <v>79</v>
+      </c>
+      <c r="C83">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="D83">
+        <v>70</v>
+      </c>
+      <c r="E83">
+        <v>73</v>
+      </c>
+      <c r="F83">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G83">
+        <v>69</v>
+      </c>
+      <c r="H83">
+        <v>100</v>
+      </c>
+      <c r="I83">
+        <v>92</v>
+      </c>
+      <c r="J83">
+        <v>79</v>
+      </c>
+      <c r="K83">
+        <v>9</v>
+      </c>
+      <c r="L83">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="3">
+        <v>42908</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>75.3</v>
+      </c>
+      <c r="D84">
+        <v>72</v>
+      </c>
+      <c r="E84">
+        <v>76</v>
+      </c>
+      <c r="F84">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="G84">
+        <v>70</v>
+      </c>
+      <c r="H84">
+        <v>97</v>
+      </c>
+      <c r="I84">
+        <v>91.7</v>
+      </c>
+      <c r="J84">
+        <v>72</v>
+      </c>
+      <c r="K84">
+        <v>12</v>
+      </c>
+      <c r="L84">
+        <v>7.2</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="3">
+        <v>42909</v>
+      </c>
+      <c r="B85">
+        <v>88</v>
+      </c>
+      <c r="C85">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="D85">
+        <v>72</v>
+      </c>
+      <c r="E85">
+        <v>73</v>
+      </c>
+      <c r="F85">
+        <v>71</v>
+      </c>
+      <c r="G85">
+        <v>69</v>
+      </c>
+      <c r="H85">
+        <v>97</v>
+      </c>
+      <c r="I85">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="J85">
+        <v>55</v>
+      </c>
+      <c r="K85">
+        <v>29</v>
+      </c>
+      <c r="L85">
+        <v>12</v>
+      </c>
+      <c r="M85">
+        <v>6</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="3">
+        <v>42910</v>
+      </c>
+      <c r="B86">
+        <v>82</v>
+      </c>
+      <c r="C86">
+        <v>75.8</v>
+      </c>
+      <c r="D86">
+        <v>72</v>
+      </c>
+      <c r="E86">
+        <v>75</v>
+      </c>
+      <c r="F86">
+        <v>73</v>
+      </c>
+      <c r="G86">
+        <v>71</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
+      <c r="I86">
+        <v>91.5</v>
+      </c>
+      <c r="J86">
+        <v>74</v>
+      </c>
+      <c r="K86">
+        <v>16</v>
+      </c>
+      <c r="L86">
+        <v>6</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="3">
+        <v>42911</v>
+      </c>
+      <c r="B87">
+        <v>80</v>
+      </c>
+      <c r="C87">
+        <v>72.5</v>
+      </c>
+      <c r="D87">
+        <v>68</v>
+      </c>
+      <c r="E87">
+        <v>71</v>
+      </c>
+      <c r="F87">
+        <v>63.5</v>
+      </c>
+      <c r="G87">
+        <v>59</v>
+      </c>
+      <c r="H87">
+        <v>97</v>
+      </c>
+      <c r="I87">
+        <v>74.8</v>
+      </c>
+      <c r="J87">
+        <v>48</v>
+      </c>
+      <c r="K87">
+        <v>14</v>
+      </c>
+      <c r="L87">
+        <v>10.3</v>
+      </c>
+      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="3">
+        <v>42912</v>
+      </c>
+      <c r="B88">
+        <v>85</v>
+      </c>
+      <c r="C88">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="D88">
+        <v>63</v>
+      </c>
+      <c r="E88">
+        <v>62</v>
+      </c>
+      <c r="F88">
+        <v>55.7</v>
+      </c>
+      <c r="G88">
+        <v>49</v>
+      </c>
+      <c r="H88">
+        <v>90</v>
+      </c>
+      <c r="I88">
+        <v>53.7</v>
+      </c>
+      <c r="J88">
+        <v>29</v>
+      </c>
+      <c r="K88">
+        <v>13</v>
+      </c>
+      <c r="L88">
+        <v>8</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="3">
+        <v>42913</v>
+      </c>
+      <c r="B89">
+        <v>84</v>
+      </c>
+      <c r="C89">
+        <v>76.2</v>
+      </c>
+      <c r="D89">
+        <v>66</v>
+      </c>
+      <c r="E89">
+        <v>61</v>
+      </c>
+      <c r="F89">
+        <v>56.3</v>
+      </c>
+      <c r="G89">
+        <v>52</v>
+      </c>
+      <c r="H89">
+        <v>84</v>
+      </c>
+      <c r="I89">
+        <v>52.2</v>
+      </c>
+      <c r="J89">
+        <v>34</v>
+      </c>
+      <c r="K89">
+        <v>16</v>
+      </c>
+      <c r="L89">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="3">
+        <v>42914</v>
+      </c>
+      <c r="B90">
+        <v>87</v>
+      </c>
+      <c r="C90">
+        <v>77.3</v>
+      </c>
+      <c r="D90">
+        <v>66</v>
+      </c>
+      <c r="E90">
+        <v>66</v>
+      </c>
+      <c r="F90">
+        <v>60.4</v>
+      </c>
+      <c r="G90">
+        <v>54</v>
+      </c>
+      <c r="H90">
+        <v>73</v>
+      </c>
+      <c r="I90">
+        <v>56.7</v>
+      </c>
+      <c r="J90">
+        <v>41</v>
+      </c>
+      <c r="K90">
+        <v>13</v>
+      </c>
+      <c r="L90">
+        <v>7.4</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="3">
+        <v>42915</v>
+      </c>
+      <c r="B91">
+        <v>83</v>
+      </c>
+      <c r="C91">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="D91">
+        <v>71</v>
+      </c>
+      <c r="E91">
+        <v>72</v>
+      </c>
+      <c r="F91">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="G91">
+        <v>64</v>
+      </c>
+      <c r="H91">
+        <v>100</v>
+      </c>
+      <c r="I91">
+        <v>83.7</v>
+      </c>
+      <c r="J91">
+        <v>65</v>
+      </c>
+      <c r="K91">
+        <v>30</v>
+      </c>
+      <c r="L91">
+        <v>9</v>
+      </c>
+      <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="3">
+        <v>42916</v>
+      </c>
+      <c r="B92">
+        <v>81</v>
+      </c>
+      <c r="C92">
+        <v>74.2</v>
+      </c>
+      <c r="D92">
+        <v>70</v>
+      </c>
+      <c r="E92">
+        <v>74</v>
+      </c>
+      <c r="F92">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="G92">
+        <v>68</v>
+      </c>
+      <c r="H92">
+        <v>97</v>
+      </c>
+      <c r="I92">
+        <v>90.3</v>
+      </c>
+      <c r="J92">
+        <v>67</v>
+      </c>
+      <c r="K92">
+        <v>20</v>
+      </c>
+      <c r="L92">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="3">
+        <v>42917</v>
+      </c>
+      <c r="B93">
+        <v>85</v>
+      </c>
+      <c r="C93">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="D93">
+        <v>71</v>
+      </c>
+      <c r="E93">
+        <v>74</v>
+      </c>
+      <c r="F93">
+        <v>71.3</v>
+      </c>
+      <c r="G93">
+        <v>69</v>
+      </c>
+      <c r="H93">
+        <v>97</v>
+      </c>
+      <c r="I93">
+        <v>83.2</v>
+      </c>
+      <c r="J93">
+        <v>65</v>
+      </c>
+      <c r="K93">
+        <v>16</v>
+      </c>
+      <c r="L93">
+        <v>7.9</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="3">
+        <v>42918</v>
+      </c>
+      <c r="B94">
+        <v>89</v>
+      </c>
+      <c r="C94">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="D94">
+        <v>70</v>
+      </c>
+      <c r="E94">
+        <v>73</v>
+      </c>
+      <c r="F94">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="G94">
+        <v>69</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="I94">
+        <v>80.5</v>
+      </c>
+      <c r="J94">
+        <v>55</v>
+      </c>
+      <c r="K94">
+        <v>16</v>
+      </c>
+      <c r="L94">
+        <v>6.8</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="3">
+        <v>42919</v>
+      </c>
+      <c r="B95">
+        <v>87</v>
+      </c>
+      <c r="C95">
+        <v>77.2</v>
+      </c>
+      <c r="D95">
+        <v>71</v>
+      </c>
+      <c r="E95">
+        <v>73</v>
+      </c>
+      <c r="F95">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="G95">
+        <v>69</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+      <c r="I95">
+        <v>82.2</v>
+      </c>
+      <c r="J95">
+        <v>57</v>
+      </c>
+      <c r="K95">
+        <v>14</v>
+      </c>
+      <c r="L95">
+        <v>6.8</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="3">
+        <v>42920</v>
+      </c>
+      <c r="B96">
+        <v>90</v>
+      </c>
+      <c r="C96">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D96">
+        <v>71</v>
+      </c>
+      <c r="E96">
+        <v>74</v>
+      </c>
+      <c r="F96">
+        <v>70.5</v>
+      </c>
+      <c r="G96">
+        <v>68</v>
+      </c>
+      <c r="H96">
+        <v>93</v>
+      </c>
+      <c r="I96">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="J96">
+        <v>55</v>
+      </c>
+      <c r="K96">
+        <v>20</v>
+      </c>
+      <c r="L96">
+        <v>7.6</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="3">
+        <v>42921</v>
+      </c>
+      <c r="B97">
+        <v>90</v>
+      </c>
+      <c r="C97">
+        <v>80.3</v>
+      </c>
+      <c r="D97">
+        <v>72</v>
+      </c>
+      <c r="E97">
+        <v>74</v>
+      </c>
+      <c r="F97">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="G97">
+        <v>66</v>
+      </c>
+      <c r="H97">
+        <v>93</v>
+      </c>
+      <c r="I97">
+        <v>72.5</v>
+      </c>
+      <c r="J97">
+        <v>52</v>
+      </c>
+      <c r="K97">
+        <v>12</v>
+      </c>
+      <c r="L97">
+        <v>5.3</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="3">
+        <v>42922</v>
+      </c>
+      <c r="B98">
+        <v>90</v>
+      </c>
+      <c r="C98">
+        <v>80.8</v>
+      </c>
+      <c r="D98">
+        <v>74</v>
+      </c>
+      <c r="E98">
+        <v>73</v>
+      </c>
+      <c r="F98">
+        <v>69.8</v>
+      </c>
+      <c r="G98">
+        <v>67</v>
+      </c>
+      <c r="H98">
+        <v>85</v>
+      </c>
+      <c r="I98">
+        <v>70.3</v>
+      </c>
+      <c r="J98">
+        <v>50</v>
+      </c>
+      <c r="K98">
+        <v>14</v>
+      </c>
+      <c r="L98">
+        <v>6.7</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="3">
+        <v>42923</v>
+      </c>
+      <c r="B99">
+        <v>90</v>
+      </c>
+      <c r="C99">
+        <v>80.7</v>
+      </c>
+      <c r="D99">
+        <v>72</v>
+      </c>
+      <c r="E99">
+        <v>75</v>
+      </c>
+      <c r="F99">
+        <v>70.5</v>
+      </c>
+      <c r="G99">
+        <v>67</v>
+      </c>
+      <c r="H99">
+        <v>93</v>
+      </c>
+      <c r="I99">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="J99">
+        <v>52</v>
+      </c>
+      <c r="K99">
+        <v>15</v>
+      </c>
+      <c r="L99">
+        <v>9.4</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="3">
+        <v>42924</v>
+      </c>
+      <c r="B100">
+        <v>90</v>
+      </c>
+      <c r="C100">
+        <v>78.3</v>
+      </c>
+      <c r="D100">
+        <v>71</v>
+      </c>
+      <c r="E100">
+        <v>74</v>
+      </c>
+      <c r="F100">
+        <v>71.2</v>
+      </c>
+      <c r="G100">
+        <v>69</v>
+      </c>
+      <c r="H100">
+        <v>97</v>
+      </c>
+      <c r="I100">
+        <v>80.2</v>
+      </c>
+      <c r="J100">
+        <v>55</v>
+      </c>
+      <c r="K100">
+        <v>18</v>
+      </c>
+      <c r="L100">
+        <v>7.7</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="3">
+        <v>42925</v>
+      </c>
+      <c r="B101">
+        <v>90</v>
+      </c>
+      <c r="C101">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="D101">
+        <v>71</v>
+      </c>
+      <c r="E101">
+        <v>70</v>
+      </c>
+      <c r="F101">
+        <v>66.7</v>
+      </c>
+      <c r="G101">
+        <v>62</v>
+      </c>
+      <c r="H101">
+        <v>91</v>
+      </c>
+      <c r="I101">
+        <v>66.7</v>
+      </c>
+      <c r="J101">
+        <v>42</v>
+      </c>
+      <c r="K101">
+        <v>18</v>
+      </c>
+      <c r="L101">
+        <v>6.3</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="3">
+        <v>42926</v>
+      </c>
+      <c r="B102">
+        <v>90</v>
+      </c>
+      <c r="C102">
+        <v>80.2</v>
+      </c>
+      <c r="D102">
+        <v>72</v>
+      </c>
+      <c r="E102">
+        <v>71</v>
+      </c>
+      <c r="F102">
+        <v>69</v>
+      </c>
+      <c r="G102">
+        <v>66</v>
+      </c>
+      <c r="H102">
+        <v>87</v>
+      </c>
+      <c r="I102">
+        <v>70</v>
+      </c>
+      <c r="J102">
+        <v>48</v>
+      </c>
+      <c r="K102">
+        <v>10</v>
+      </c>
+      <c r="L102">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="3">
+        <v>42927</v>
+      </c>
+      <c r="B103">
+        <v>88</v>
+      </c>
+      <c r="C103">
+        <v>79.7</v>
+      </c>
+      <c r="D103">
+        <v>73</v>
+      </c>
+      <c r="E103">
+        <v>73</v>
+      </c>
+      <c r="F103">
+        <v>70.8</v>
+      </c>
+      <c r="G103">
+        <v>68</v>
+      </c>
+      <c r="H103">
+        <v>93</v>
+      </c>
+      <c r="I103">
+        <v>75.5</v>
+      </c>
+      <c r="J103">
+        <v>57</v>
+      </c>
+      <c r="K103">
+        <v>21</v>
+      </c>
+      <c r="L103">
+        <v>6.2</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="3">
+        <v>42928</v>
+      </c>
+      <c r="B104">
+        <v>89</v>
+      </c>
+      <c r="C104">
+        <v>79.3</v>
+      </c>
+      <c r="D104">
+        <v>72</v>
+      </c>
+      <c r="E104">
+        <v>74</v>
+      </c>
+      <c r="F104">
+        <v>70</v>
+      </c>
+      <c r="G104">
+        <v>68</v>
+      </c>
+      <c r="H104">
+        <v>93</v>
+      </c>
+      <c r="I104">
+        <v>74.7</v>
+      </c>
+      <c r="J104">
+        <v>50</v>
+      </c>
+      <c r="K104">
+        <v>10</v>
+      </c>
+      <c r="L104">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="3">
+        <v>42929</v>
+      </c>
+      <c r="B105">
+        <v>91</v>
+      </c>
+      <c r="C105">
+        <v>83.6</v>
+      </c>
+      <c r="D105">
+        <v>74</v>
+      </c>
+      <c r="E105">
+        <v>72</v>
+      </c>
+      <c r="F105">
+        <v>70.7</v>
+      </c>
+      <c r="G105">
+        <v>69</v>
+      </c>
+      <c r="H105">
+        <v>91</v>
+      </c>
+      <c r="I105">
+        <v>66.3</v>
+      </c>
+      <c r="J105">
+        <v>52</v>
+      </c>
+      <c r="K105">
+        <v>9</v>
+      </c>
+      <c r="L105">
+        <v>2.8</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="3">
+        <v>42930</v>
+      </c>
+      <c r="B106">
+        <v>91</v>
+      </c>
+      <c r="C106">
+        <v>82.2</v>
+      </c>
+      <c r="D106">
+        <v>75</v>
+      </c>
+      <c r="E106">
+        <v>73</v>
+      </c>
+      <c r="F106">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="G106">
+        <v>67</v>
+      </c>
+      <c r="H106">
+        <v>87</v>
+      </c>
+      <c r="I106">
+        <v>70.5</v>
+      </c>
+      <c r="J106">
+        <v>45</v>
+      </c>
+      <c r="K106">
+        <v>16</v>
+      </c>
+      <c r="L106">
+        <v>7.9</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="3">
+        <v>42931</v>
+      </c>
+      <c r="B107">
+        <v>90</v>
+      </c>
+      <c r="C107">
+        <v>80</v>
+      </c>
+      <c r="D107">
+        <v>74</v>
+      </c>
+      <c r="E107">
+        <v>73</v>
+      </c>
+      <c r="F107">
+        <v>70.3</v>
+      </c>
+      <c r="G107">
+        <v>68</v>
+      </c>
+      <c r="H107">
+        <v>91</v>
+      </c>
+      <c r="I107">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="J107">
+        <v>50</v>
+      </c>
+      <c r="K107">
+        <v>15</v>
+      </c>
+      <c r="L107">
+        <v>4.8</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="3">
+        <v>42932</v>
+      </c>
+      <c r="B108">
+        <v>82</v>
+      </c>
+      <c r="C108">
+        <v>76</v>
+      </c>
+      <c r="D108">
+        <v>73</v>
+      </c>
+      <c r="E108">
+        <v>72</v>
+      </c>
+      <c r="F108">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G108">
+        <v>69</v>
+      </c>
+      <c r="H108">
+        <v>93</v>
+      </c>
+      <c r="I108">
+        <v>83.9</v>
+      </c>
+      <c r="J108">
+        <v>65</v>
+      </c>
+      <c r="K108">
+        <v>12</v>
+      </c>
+      <c r="L108">
+        <v>5.6</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="3">
+        <v>42933</v>
+      </c>
+      <c r="B109">
+        <v>87</v>
+      </c>
+      <c r="C109">
+        <v>76.3</v>
+      </c>
+      <c r="D109">
+        <v>68</v>
+      </c>
+      <c r="E109">
+        <v>73</v>
+      </c>
+      <c r="F109">
+        <v>69</v>
+      </c>
+      <c r="G109">
+        <v>65</v>
+      </c>
+      <c r="H109">
+        <v>96</v>
+      </c>
+      <c r="I109">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="J109">
+        <v>61</v>
+      </c>
+      <c r="K109">
+        <v>30</v>
+      </c>
+      <c r="L109">
+        <v>6.9</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="3">
+        <v>42934</v>
+      </c>
+      <c r="B110">
+        <v>88</v>
+      </c>
+      <c r="C110">
+        <v>79.2</v>
+      </c>
+      <c r="D110">
+        <v>70</v>
+      </c>
+      <c r="E110">
+        <v>73</v>
+      </c>
+      <c r="F110">
+        <v>69</v>
+      </c>
+      <c r="G110">
+        <v>66</v>
+      </c>
+      <c r="H110">
+        <v>93</v>
+      </c>
+      <c r="I110">
+        <v>72.7</v>
+      </c>
+      <c r="J110">
+        <v>48</v>
+      </c>
+      <c r="K110">
+        <v>12</v>
+      </c>
+      <c r="L110">
+        <v>4.2</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="3">
+        <v>42935</v>
+      </c>
+      <c r="B111">
+        <v>92</v>
+      </c>
+      <c r="C111">
+        <v>83.8</v>
+      </c>
+      <c r="D111">
+        <v>74</v>
+      </c>
+      <c r="E111">
+        <v>73</v>
+      </c>
+      <c r="F111">
+        <v>70</v>
+      </c>
+      <c r="G111">
+        <v>65</v>
+      </c>
+      <c r="H111">
+        <v>93</v>
+      </c>
+      <c r="I111">
+        <v>65.5</v>
+      </c>
+      <c r="J111">
+        <v>43</v>
+      </c>
+      <c r="K111">
+        <v>12</v>
+      </c>
+      <c r="L111">
+        <v>5.5</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="3">
+        <v>42936</v>
+      </c>
+      <c r="B112">
+        <v>93</v>
+      </c>
+      <c r="C112">
+        <v>83.8</v>
+      </c>
+      <c r="D112">
+        <v>74</v>
+      </c>
+      <c r="E112">
+        <v>74</v>
+      </c>
+      <c r="F112">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="G112">
+        <v>68</v>
+      </c>
+      <c r="H112">
+        <v>87</v>
+      </c>
+      <c r="I112">
+        <v>64.8</v>
+      </c>
+      <c r="J112">
+        <v>44</v>
+      </c>
+      <c r="K112">
+        <v>14</v>
+      </c>
+      <c r="L112">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="3">
+        <v>42937</v>
+      </c>
+      <c r="B113">
+        <v>91</v>
+      </c>
+      <c r="C113">
+        <v>84.4</v>
+      </c>
+      <c r="D113">
+        <v>77</v>
+      </c>
+      <c r="E113">
+        <v>74</v>
+      </c>
+      <c r="F113">
+        <v>72.3</v>
+      </c>
+      <c r="G113">
+        <v>70</v>
+      </c>
+      <c r="H113">
+        <v>90</v>
+      </c>
+      <c r="I113">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="J113">
+        <v>50</v>
+      </c>
+      <c r="K113">
+        <v>17</v>
+      </c>
+      <c r="L113">
+        <v>5.8</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="3">
+        <v>42938</v>
+      </c>
+      <c r="B114">
+        <v>91</v>
+      </c>
+      <c r="C114">
+        <v>80.5</v>
+      </c>
+      <c r="D114">
+        <v>74</v>
+      </c>
+      <c r="E114">
+        <v>75</v>
+      </c>
+      <c r="F114">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G114">
+        <v>69</v>
+      </c>
+      <c r="H114">
+        <v>91</v>
+      </c>
+      <c r="I114">
+        <v>77</v>
+      </c>
+      <c r="J114">
+        <v>55</v>
+      </c>
+      <c r="K114">
+        <v>24</v>
+      </c>
+      <c r="L114">
+        <v>7.1</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="3">
+        <v>42939</v>
+      </c>
+      <c r="B115">
+        <v>90</v>
+      </c>
+      <c r="C115">
+        <v>82.7</v>
+      </c>
+      <c r="D115">
+        <v>75</v>
+      </c>
+      <c r="E115">
+        <v>75</v>
+      </c>
+      <c r="F115">
+        <v>73.2</v>
+      </c>
+      <c r="G115">
+        <v>70</v>
+      </c>
+      <c r="H115">
+        <v>97</v>
+      </c>
+      <c r="I115">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="J115">
+        <v>52</v>
+      </c>
+      <c r="K115">
+        <v>14</v>
+      </c>
+      <c r="L115">
+        <v>7</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="3">
+        <v>42940</v>
+      </c>
+      <c r="B116">
+        <v>91</v>
+      </c>
+      <c r="C116">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="D116">
+        <v>75</v>
+      </c>
+      <c r="E116">
+        <v>74</v>
+      </c>
+      <c r="F116">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G116">
+        <v>70</v>
+      </c>
+      <c r="H116">
+        <v>94</v>
+      </c>
+      <c r="I116">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="J116">
+        <v>50</v>
+      </c>
+      <c r="K116">
+        <v>16</v>
+      </c>
+      <c r="L116">
+        <v>7.4</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="3">
+        <v>42941</v>
+      </c>
+      <c r="B117">
+        <v>88</v>
+      </c>
+      <c r="C117">
+        <v>79.3</v>
+      </c>
+      <c r="D117">
+        <v>73</v>
+      </c>
+      <c r="E117">
+        <v>76</v>
+      </c>
+      <c r="F117">
+        <v>71.5</v>
+      </c>
+      <c r="G117">
+        <v>65</v>
+      </c>
+      <c r="H117">
+        <v>93</v>
+      </c>
+      <c r="I117">
+        <v>77.7</v>
+      </c>
+      <c r="J117">
+        <v>61</v>
+      </c>
+      <c r="K117">
+        <v>13</v>
+      </c>
+      <c r="L117">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="3">
+        <v>42942</v>
+      </c>
+      <c r="B118">
+        <v>94</v>
+      </c>
+      <c r="C118">
+        <v>82.7</v>
+      </c>
+      <c r="D118">
+        <v>74</v>
+      </c>
+      <c r="E118">
+        <v>74</v>
+      </c>
+      <c r="F118">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="G118">
+        <v>64</v>
+      </c>
+      <c r="H118">
+        <v>94</v>
+      </c>
+      <c r="I118">
+        <v>65.8</v>
+      </c>
+      <c r="J118">
+        <v>37</v>
+      </c>
+      <c r="K118">
+        <v>14</v>
+      </c>
+      <c r="L118">
+        <v>5.7</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="3">
+        <v>42943</v>
+      </c>
+      <c r="B119">
+        <v>90</v>
+      </c>
+      <c r="C119">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="D119">
+        <v>72</v>
+      </c>
+      <c r="E119">
+        <v>73</v>
+      </c>
+      <c r="F119">
+        <v>70.2</v>
+      </c>
+      <c r="G119">
+        <v>66</v>
+      </c>
+      <c r="H119">
+        <v>94</v>
+      </c>
+      <c r="I119">
+        <v>77.2</v>
+      </c>
+      <c r="J119">
+        <v>53</v>
+      </c>
+      <c r="K119">
+        <v>23</v>
+      </c>
+      <c r="L119">
+        <v>5.9</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="3">
+        <v>42944</v>
+      </c>
+      <c r="B120">
+        <v>84</v>
+      </c>
+      <c r="C120">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="D120">
+        <v>73</v>
+      </c>
+      <c r="E120">
+        <v>75</v>
+      </c>
+      <c r="F120">
+        <v>72.7</v>
+      </c>
+      <c r="G120">
+        <v>70</v>
+      </c>
+      <c r="H120">
+        <v>97</v>
+      </c>
+      <c r="I120">
+        <v>82.5</v>
+      </c>
+      <c r="J120">
+        <v>69</v>
+      </c>
+      <c r="K120">
+        <v>15</v>
+      </c>
+      <c r="L120">
+        <v>8.5</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="3">
+        <v>42945</v>
+      </c>
+      <c r="B121">
+        <v>89</v>
+      </c>
+      <c r="C121">
+        <v>80.5</v>
+      </c>
+      <c r="D121">
+        <v>75</v>
+      </c>
+      <c r="E121">
+        <v>75</v>
+      </c>
+      <c r="F121">
+        <v>67.7</v>
+      </c>
+      <c r="G121">
+        <v>51</v>
+      </c>
+      <c r="H121">
+        <v>96</v>
+      </c>
+      <c r="I121">
+        <v>69.2</v>
+      </c>
+      <c r="J121">
+        <v>28</v>
+      </c>
+      <c r="K121">
+        <v>20</v>
+      </c>
+      <c r="L121">
+        <v>10.8</v>
+      </c>
+      <c r="M121">
+        <v>7</v>
+      </c>
+      <c r="N121">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="3">
+        <v>42946</v>
+      </c>
+      <c r="B122">
+        <v>85</v>
+      </c>
+      <c r="C122">
+        <v>78</v>
+      </c>
+      <c r="D122">
+        <v>71</v>
+      </c>
+      <c r="E122">
+        <v>64</v>
+      </c>
+      <c r="F122">
+        <v>60.6</v>
+      </c>
+      <c r="G122">
+        <v>59</v>
+      </c>
+      <c r="H122">
+        <v>73</v>
+      </c>
+      <c r="I122">
+        <v>56</v>
+      </c>
+      <c r="J122">
+        <v>43</v>
+      </c>
+      <c r="K122">
+        <v>20</v>
+      </c>
+      <c r="L122">
+        <v>11.4</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="3">
+        <v>42947</v>
+      </c>
+      <c r="B123">
+        <v>86</v>
+      </c>
+      <c r="C123">
+        <v>77.5</v>
+      </c>
+      <c r="D123">
+        <v>68</v>
+      </c>
+      <c r="E123">
+        <v>62</v>
+      </c>
+      <c r="F123">
+        <v>55.9</v>
+      </c>
+      <c r="G123">
+        <v>51</v>
+      </c>
+      <c r="H123">
+        <v>73</v>
+      </c>
+      <c r="I123">
+        <v>49</v>
+      </c>
+      <c r="J123">
+        <v>32</v>
+      </c>
+      <c r="K123">
+        <v>13</v>
+      </c>
+      <c r="L123">
+        <v>8.5</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="3">
+        <v>42948</v>
+      </c>
+      <c r="B124">
+        <v>86</v>
+      </c>
+      <c r="C124">
+        <v>78.2</v>
+      </c>
+      <c r="D124">
+        <v>69</v>
+      </c>
+      <c r="E124">
+        <v>61</v>
+      </c>
+      <c r="F124">
+        <v>58.7</v>
+      </c>
+      <c r="G124">
+        <v>54</v>
+      </c>
+      <c r="H124">
+        <v>73</v>
+      </c>
+      <c r="I124">
+        <v>52.4</v>
+      </c>
+      <c r="J124">
+        <v>33</v>
+      </c>
+      <c r="K124">
+        <v>9</v>
+      </c>
+      <c r="L124">
+        <v>3.5</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="3">
+        <v>42949</v>
+      </c>
+      <c r="B125">
+        <v>85</v>
+      </c>
+      <c r="C125">
+        <v>78.2</v>
+      </c>
+      <c r="D125">
+        <v>72</v>
+      </c>
+      <c r="E125">
+        <v>65</v>
+      </c>
+      <c r="F125">
+        <v>61</v>
+      </c>
+      <c r="G125">
+        <v>57</v>
+      </c>
+      <c r="H125">
+        <v>71</v>
+      </c>
+      <c r="I125">
+        <v>56.5</v>
+      </c>
+      <c r="J125">
+        <v>38</v>
+      </c>
+      <c r="K125">
+        <v>8</v>
+      </c>
+      <c r="L125">
+        <v>3.1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="3">
+        <v>42950</v>
+      </c>
+      <c r="B126">
+        <v>83</v>
+      </c>
+      <c r="C126">
+        <v>77</v>
+      </c>
+      <c r="D126">
+        <v>70</v>
+      </c>
+      <c r="E126">
+        <v>71</v>
+      </c>
+      <c r="F126">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G126">
+        <v>62</v>
+      </c>
+      <c r="H126">
+        <v>93</v>
+      </c>
+      <c r="I126">
+        <v>70.5</v>
+      </c>
+      <c r="J126">
+        <v>53</v>
+      </c>
+      <c r="K126">
+        <v>9</v>
+      </c>
+      <c r="L126">
+        <v>4.5</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="3">
+        <v>42951</v>
+      </c>
+      <c r="B127">
+        <v>86</v>
+      </c>
+      <c r="C127">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D127">
+        <v>69</v>
+      </c>
+      <c r="E127">
+        <v>73</v>
+      </c>
+      <c r="F127">
+        <v>69</v>
+      </c>
+      <c r="G127">
+        <v>67</v>
+      </c>
+      <c r="H127">
+        <v>97</v>
+      </c>
+      <c r="I127">
+        <v>80.5</v>
+      </c>
+      <c r="J127">
+        <v>55</v>
+      </c>
+      <c r="K127">
+        <v>12</v>
+      </c>
+      <c r="L127">
+        <v>5.2</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="3">
+        <v>42952</v>
+      </c>
+      <c r="B128">
+        <v>87</v>
+      </c>
+      <c r="C128">
+        <v>77.8</v>
+      </c>
+      <c r="D128">
+        <v>70</v>
+      </c>
+      <c r="E128">
+        <v>72</v>
+      </c>
+      <c r="F128">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="G128">
+        <v>65</v>
+      </c>
+      <c r="H128">
+        <v>97</v>
+      </c>
+      <c r="I128">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="J128">
+        <v>49</v>
+      </c>
+      <c r="K128">
+        <v>12</v>
+      </c>
+      <c r="L128">
+        <v>6.8</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="3">
+        <v>42953</v>
+      </c>
+      <c r="B129">
+        <v>87</v>
+      </c>
+      <c r="C129">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="D129">
+        <v>72</v>
+      </c>
+      <c r="E129">
+        <v>74</v>
+      </c>
+      <c r="F129">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="G129">
+        <v>60</v>
+      </c>
+      <c r="H129">
+        <v>96</v>
+      </c>
+      <c r="I129">
+        <v>74.2</v>
+      </c>
+      <c r="J129">
+        <v>53</v>
+      </c>
+      <c r="K129">
+        <v>12</v>
+      </c>
+      <c r="L129">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="3">
+        <v>42954</v>
+      </c>
+      <c r="B130">
+        <v>84</v>
+      </c>
+      <c r="C130">
+        <v>77</v>
+      </c>
+      <c r="D130">
+        <v>73</v>
+      </c>
+      <c r="E130">
+        <v>74</v>
+      </c>
+      <c r="F130">
+        <v>72.2</v>
+      </c>
+      <c r="G130">
+        <v>70</v>
+      </c>
+      <c r="H130">
+        <v>97</v>
+      </c>
+      <c r="I130">
+        <v>85.5</v>
+      </c>
+      <c r="J130">
+        <v>63</v>
+      </c>
+      <c r="K130">
+        <v>15</v>
+      </c>
+      <c r="L130">
+        <v>7.7</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="3">
+        <v>42955</v>
+      </c>
+      <c r="B131">
+        <v>76</v>
+      </c>
+      <c r="C131">
+        <v>72.5</v>
+      </c>
+      <c r="D131">
+        <v>71</v>
+      </c>
+      <c r="E131">
+        <v>71</v>
+      </c>
+      <c r="F131">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="G131">
+        <v>67</v>
+      </c>
+      <c r="H131">
+        <v>97</v>
+      </c>
+      <c r="I131">
+        <v>90.3</v>
+      </c>
+      <c r="J131">
+        <v>79</v>
+      </c>
+      <c r="K131">
+        <v>14</v>
+      </c>
+      <c r="L131">
+        <v>4.8</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="3">
+        <v>42956</v>
+      </c>
+      <c r="B132">
+        <v>80</v>
+      </c>
+      <c r="C132">
+        <v>73.8</v>
+      </c>
+      <c r="D132">
+        <v>71</v>
+      </c>
+      <c r="E132">
+        <v>72</v>
+      </c>
+      <c r="F132">
+        <v>70.7</v>
+      </c>
+      <c r="G132">
+        <v>70</v>
+      </c>
+      <c r="H132">
+        <v>100</v>
+      </c>
+      <c r="I132">
+        <v>90.1</v>
+      </c>
+      <c r="J132">
+        <v>74</v>
+      </c>
+      <c r="K132">
+        <v>14</v>
+      </c>
+      <c r="L132">
+        <v>7.7</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="3">
+        <v>42957</v>
+      </c>
+      <c r="B133">
+        <v>84</v>
+      </c>
+      <c r="C133">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="D133">
+        <v>72</v>
+      </c>
+      <c r="E133">
+        <v>75</v>
+      </c>
+      <c r="F133">
+        <v>72.3</v>
+      </c>
+      <c r="G133">
+        <v>70</v>
+      </c>
+      <c r="H133">
+        <v>97</v>
+      </c>
+      <c r="I133">
+        <v>87.5</v>
+      </c>
+      <c r="J133">
+        <v>69</v>
+      </c>
+      <c r="K133">
+        <v>29</v>
+      </c>
+      <c r="L133">
+        <v>6.3</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="3">
+        <v>42958</v>
+      </c>
+      <c r="B134">
+        <v>87</v>
+      </c>
+      <c r="C134">
+        <v>78</v>
+      </c>
+      <c r="D134">
+        <v>72</v>
+      </c>
+      <c r="E134">
+        <v>73</v>
+      </c>
+      <c r="F134">
+        <v>71.8</v>
+      </c>
+      <c r="G134">
+        <v>70</v>
+      </c>
+      <c r="H134">
+        <v>97</v>
+      </c>
+      <c r="I134">
+        <v>82.2</v>
+      </c>
+      <c r="J134">
+        <v>59</v>
+      </c>
+      <c r="K134">
+        <v>10</v>
+      </c>
+      <c r="L134">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="3">
+        <v>42959</v>
+      </c>
+      <c r="B135">
+        <v>89</v>
+      </c>
+      <c r="C135">
+        <v>80.2</v>
+      </c>
+      <c r="D135">
+        <v>73</v>
+      </c>
+      <c r="E135">
+        <v>74</v>
+      </c>
+      <c r="F135">
+        <v>72.3</v>
+      </c>
+      <c r="G135">
+        <v>71</v>
+      </c>
+      <c r="H135">
+        <v>97</v>
+      </c>
+      <c r="I135">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="J135">
+        <v>55</v>
+      </c>
+      <c r="K135">
+        <v>10</v>
+      </c>
+      <c r="L135">
+        <v>5.8</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="3">
+        <v>42960</v>
+      </c>
+      <c r="B136">
+        <v>90</v>
+      </c>
+      <c r="C136">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="D136">
+        <v>73</v>
+      </c>
+      <c r="E136">
+        <v>73</v>
+      </c>
+      <c r="F136">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G136">
+        <v>67</v>
+      </c>
+      <c r="H136">
+        <v>94</v>
+      </c>
+      <c r="I136">
+        <v>73.3</v>
+      </c>
+      <c r="J136">
+        <v>51</v>
+      </c>
+      <c r="K136">
+        <v>9</v>
+      </c>
+      <c r="L136">
+        <v>5.3</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="3">
+        <v>42961</v>
+      </c>
+      <c r="B137">
+        <v>91</v>
+      </c>
+      <c r="C137">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="D137">
+        <v>75</v>
+      </c>
+      <c r="E137">
+        <v>74</v>
+      </c>
+      <c r="F137">
+        <v>72</v>
+      </c>
+      <c r="G137">
+        <v>68</v>
+      </c>
+      <c r="H137">
+        <v>94</v>
+      </c>
+      <c r="I137">
+        <v>74.5</v>
+      </c>
+      <c r="J137">
+        <v>47</v>
+      </c>
+      <c r="K137">
+        <v>14</v>
+      </c>
+      <c r="L137">
+        <v>4.5</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="3">
+        <v>42962</v>
+      </c>
+      <c r="B138">
+        <v>88</v>
+      </c>
+      <c r="C138">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="D138">
+        <v>74</v>
+      </c>
+      <c r="E138">
+        <v>75</v>
+      </c>
+      <c r="F138">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="G138">
+        <v>72</v>
+      </c>
+      <c r="H138">
+        <v>97</v>
+      </c>
+      <c r="I138">
+        <v>80.8</v>
+      </c>
+      <c r="J138">
+        <v>61</v>
+      </c>
+      <c r="K138">
+        <v>13</v>
+      </c>
+      <c r="L138">
+        <v>7.9</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="3">
+        <v>42963</v>
+      </c>
+      <c r="B139">
+        <v>91</v>
+      </c>
+      <c r="C139">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="D139">
+        <v>74</v>
+      </c>
+      <c r="E139">
+        <v>74</v>
+      </c>
+      <c r="F139">
+        <v>72.5</v>
+      </c>
+      <c r="G139">
+        <v>71</v>
+      </c>
+      <c r="H139">
+        <v>93</v>
+      </c>
+      <c r="I139">
+        <v>74.2</v>
+      </c>
+      <c r="J139">
+        <v>53</v>
+      </c>
+      <c r="K139">
+        <v>9</v>
+      </c>
+      <c r="L139">
+        <v>6.7</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="3">
+        <v>42964</v>
+      </c>
+      <c r="B140">
+        <v>89</v>
+      </c>
+      <c r="C140">
+        <v>82.7</v>
+      </c>
+      <c r="D140">
+        <v>77</v>
+      </c>
+      <c r="E140">
+        <v>74</v>
+      </c>
+      <c r="F140">
+        <v>72.5</v>
+      </c>
+      <c r="G140">
+        <v>69</v>
+      </c>
+      <c r="H140">
+        <v>90</v>
+      </c>
+      <c r="I140">
+        <v>72.2</v>
+      </c>
+      <c r="J140">
+        <v>53</v>
+      </c>
+      <c r="K140">
+        <v>15</v>
+      </c>
+      <c r="L140">
+        <v>7.9</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="3">
+        <v>42965</v>
+      </c>
+      <c r="B141">
+        <v>89</v>
+      </c>
+      <c r="C141">
+        <v>81.7</v>
+      </c>
+      <c r="D141">
+        <v>75</v>
+      </c>
+      <c r="E141">
+        <v>73</v>
+      </c>
+      <c r="F141">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="G141">
+        <v>67</v>
+      </c>
+      <c r="H141">
+        <v>90</v>
+      </c>
+      <c r="I141">
+        <v>69</v>
+      </c>
+      <c r="J141">
+        <v>50</v>
+      </c>
+      <c r="K141">
+        <v>14</v>
+      </c>
+      <c r="L141">
+        <v>9</v>
+      </c>
+      <c r="M141">
+        <v>5</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="3">
+        <v>42966</v>
+      </c>
+      <c r="B142">
+        <v>89</v>
+      </c>
+      <c r="C142">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="D142">
+        <v>69</v>
+      </c>
+      <c r="E142">
+        <v>69</v>
+      </c>
+      <c r="F142">
+        <v>65.7</v>
+      </c>
+      <c r="G142">
+        <v>63</v>
+      </c>
+      <c r="H142">
+        <v>87</v>
+      </c>
+      <c r="I142">
+        <v>64.5</v>
+      </c>
+      <c r="J142">
+        <v>42</v>
+      </c>
+      <c r="K142">
+        <v>9</v>
+      </c>
+      <c r="L142">
+        <v>5.7</v>
+      </c>
+      <c r="M142">
+        <v>3</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="3">
+        <v>42967</v>
+      </c>
+      <c r="B143">
+        <v>91</v>
+      </c>
+      <c r="C143">
+        <v>83.3</v>
+      </c>
+      <c r="D143">
+        <v>74</v>
+      </c>
+      <c r="E143">
+        <v>69</v>
+      </c>
+      <c r="F143">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="G143">
+        <v>65</v>
+      </c>
+      <c r="H143">
+        <v>79</v>
+      </c>
+      <c r="I143">
+        <v>59.2</v>
+      </c>
+      <c r="J143">
+        <v>43</v>
+      </c>
+      <c r="K143">
+        <v>9</v>
+      </c>
+      <c r="L143">
+        <v>4.3</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="3">
+        <v>42968</v>
+      </c>
+      <c r="B144">
+        <v>91</v>
+      </c>
+      <c r="C144">
+        <v>83.6</v>
+      </c>
+      <c r="D144">
+        <v>76</v>
+      </c>
+      <c r="E144">
+        <v>72</v>
+      </c>
+      <c r="F144">
+        <v>69.7</v>
+      </c>
+      <c r="G144">
+        <v>67</v>
+      </c>
+      <c r="H144">
+        <v>82</v>
+      </c>
+      <c r="I144">
+        <v>64.2</v>
+      </c>
+      <c r="J144">
+        <v>48</v>
+      </c>
+      <c r="K144">
+        <v>9</v>
+      </c>
+      <c r="L144">
+        <v>5.7</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="3">
+        <v>42969</v>
+      </c>
+      <c r="B145">
+        <v>92</v>
+      </c>
+      <c r="C145">
+        <v>82.4</v>
+      </c>
+      <c r="D145">
+        <v>74</v>
+      </c>
+      <c r="E145">
+        <v>73</v>
+      </c>
+      <c r="F145">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G145">
+        <v>66</v>
+      </c>
+      <c r="H145">
+        <v>91</v>
+      </c>
+      <c r="I145">
+        <v>69.3</v>
+      </c>
+      <c r="J145">
+        <v>43</v>
+      </c>
+      <c r="K145">
+        <v>10</v>
+      </c>
+      <c r="L145">
+        <v>5.2</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="3">
+        <v>42970</v>
+      </c>
+      <c r="B146">
+        <v>87</v>
+      </c>
+      <c r="C146">
+        <v>80.8</v>
+      </c>
+      <c r="D146">
+        <v>74</v>
+      </c>
+      <c r="E146">
+        <v>73</v>
+      </c>
+      <c r="F146">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="G146">
+        <v>65</v>
+      </c>
+      <c r="H146">
+        <v>91</v>
+      </c>
+      <c r="I146">
+        <v>69.2</v>
+      </c>
+      <c r="J146">
+        <v>48</v>
+      </c>
+      <c r="K146">
+        <v>13</v>
+      </c>
+      <c r="L146">
+        <v>7.9</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="3">
+        <v>42971</v>
+      </c>
+      <c r="B147">
+        <v>89</v>
+      </c>
+      <c r="C147">
+        <v>78.3</v>
+      </c>
+      <c r="D147">
+        <v>67</v>
+      </c>
+      <c r="E147">
+        <v>64</v>
+      </c>
+      <c r="F147">
+        <v>61.3</v>
+      </c>
+      <c r="G147">
+        <v>56</v>
+      </c>
+      <c r="H147">
+        <v>84</v>
+      </c>
+      <c r="I147">
+        <v>58.1</v>
+      </c>
+      <c r="J147">
+        <v>32</v>
+      </c>
+      <c r="K147">
+        <v>13</v>
+      </c>
+      <c r="L147">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M147">
+        <v>6</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="3">
+        <v>42972</v>
+      </c>
+      <c r="B148">
+        <v>85</v>
+      </c>
+      <c r="C148">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="D148">
+        <v>73</v>
+      </c>
+      <c r="E148">
+        <v>70</v>
+      </c>
+      <c r="F148">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="G148">
+        <v>60</v>
+      </c>
+      <c r="H148">
+        <v>84</v>
+      </c>
+      <c r="I148">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="J148">
+        <v>56</v>
+      </c>
+      <c r="K148">
+        <v>14</v>
+      </c>
+      <c r="L148">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M148">
+        <v>6</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="3">
+        <v>42973</v>
+      </c>
+      <c r="B149">
+        <v>84</v>
+      </c>
+      <c r="C149">
+        <v>78.3</v>
+      </c>
+      <c r="D149">
+        <v>72</v>
+      </c>
+      <c r="E149">
+        <v>70</v>
+      </c>
+      <c r="F149">
+        <v>68.3</v>
+      </c>
+      <c r="G149">
+        <v>67</v>
+      </c>
+      <c r="H149">
+        <v>91</v>
+      </c>
+      <c r="I149">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="J149">
+        <v>56</v>
+      </c>
+      <c r="K149">
+        <v>13</v>
+      </c>
+      <c r="L149">
+        <v>9</v>
+      </c>
+      <c r="M149">
+        <v>6</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="3">
+        <v>42974</v>
+      </c>
+      <c r="B150">
+        <v>84</v>
+      </c>
+      <c r="C150">
+        <v>77.5</v>
+      </c>
+      <c r="D150">
+        <v>72</v>
+      </c>
+      <c r="E150">
+        <v>68</v>
+      </c>
+      <c r="F150">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="G150">
+        <v>62</v>
+      </c>
+      <c r="H150">
+        <v>84</v>
+      </c>
+      <c r="I150">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="J150">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>16</v>
+      </c>
+      <c r="L150">
+        <v>10.6</v>
+      </c>
+      <c r="M150">
+        <v>7</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="3">
+        <v>42975</v>
+      </c>
+      <c r="B151">
+        <v>79</v>
+      </c>
+      <c r="C151">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="D151">
+        <v>69</v>
+      </c>
+      <c r="E151">
+        <v>62</v>
+      </c>
+      <c r="F151">
+        <v>57.3</v>
+      </c>
+      <c r="G151">
+        <v>55</v>
+      </c>
+      <c r="H151">
+        <v>71</v>
+      </c>
+      <c r="I151">
+        <v>58.7</v>
+      </c>
+      <c r="J151">
+        <v>44</v>
+      </c>
+      <c r="K151">
+        <v>21</v>
+      </c>
+      <c r="L151">
+        <v>15</v>
+      </c>
+      <c r="M151">
+        <v>10</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="3">
+        <v>42976</v>
+      </c>
+      <c r="B152">
+        <v>82</v>
+      </c>
+      <c r="C152">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="D152">
+        <v>69</v>
+      </c>
+      <c r="E152">
+        <v>67</v>
+      </c>
+      <c r="F152">
+        <v>61.8</v>
+      </c>
+      <c r="G152">
+        <v>59</v>
+      </c>
+      <c r="H152">
+        <v>79</v>
+      </c>
+      <c r="I152">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="J152">
+        <v>51</v>
+      </c>
+      <c r="K152">
+        <v>14</v>
+      </c>
+      <c r="L152">
+        <v>8</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="3">
+        <v>42977</v>
+      </c>
+      <c r="B153">
+        <v>73</v>
+      </c>
+      <c r="C153">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="D153">
+        <v>69</v>
+      </c>
+      <c r="E153">
+        <v>69</v>
+      </c>
+      <c r="F153">
+        <v>67.3</v>
+      </c>
+      <c r="G153">
+        <v>65</v>
+      </c>
+      <c r="H153">
+        <v>96</v>
+      </c>
+      <c r="I153">
+        <v>86.8</v>
+      </c>
+      <c r="J153">
+        <v>78</v>
+      </c>
+      <c r="K153">
+        <v>13</v>
+      </c>
+      <c r="L153">
+        <v>7.3</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="3">
+        <v>42978</v>
+      </c>
+      <c r="B154">
+        <v>82</v>
+      </c>
+      <c r="C154">
+        <v>73.2</v>
+      </c>
+      <c r="D154">
+        <v>69</v>
+      </c>
+      <c r="E154">
+        <v>74</v>
+      </c>
+      <c r="F154">
+        <v>70</v>
+      </c>
+      <c r="G154">
+        <v>67</v>
+      </c>
+      <c r="H154">
+        <v>100</v>
+      </c>
+      <c r="I154">
+        <v>90.3</v>
+      </c>
+      <c r="J154">
+        <v>60</v>
+      </c>
+      <c r="K154">
+        <v>13</v>
+      </c>
+      <c r="L154">
+        <v>7.6</v>
+      </c>
+      <c r="M154">
+        <v>5</v>
+      </c>
+      <c r="N154">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="3">
+        <v>42979</v>
+      </c>
+      <c r="B155">
+        <v>82</v>
+      </c>
+      <c r="C155">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="D155">
+        <v>68</v>
+      </c>
+      <c r="E155">
+        <v>71</v>
+      </c>
+      <c r="F155">
+        <v>67.7</v>
+      </c>
+      <c r="G155">
+        <v>62</v>
+      </c>
+      <c r="H155">
+        <v>93</v>
+      </c>
+      <c r="I155">
+        <v>77.5</v>
+      </c>
+      <c r="J155">
+        <v>54</v>
+      </c>
+      <c r="K155">
+        <v>22</v>
+      </c>
+      <c r="L155">
+        <v>14.5</v>
+      </c>
+      <c r="M155">
+        <v>6</v>
+      </c>
+      <c r="N155" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="3">
+        <v>42980</v>
+      </c>
+      <c r="B156">
+        <v>82</v>
+      </c>
+      <c r="C156">
+        <v>71.3</v>
+      </c>
+      <c r="D156">
+        <v>62</v>
+      </c>
+      <c r="E156">
+        <v>63</v>
+      </c>
+      <c r="F156">
+        <v>59.8</v>
+      </c>
+      <c r="G156">
+        <v>58</v>
+      </c>
+      <c r="H156">
+        <v>90</v>
+      </c>
+      <c r="I156">
+        <v>69</v>
+      </c>
+      <c r="J156">
+        <v>44</v>
+      </c>
+      <c r="K156">
+        <v>14</v>
+      </c>
+      <c r="L156">
+        <v>7.8</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="3">
+        <v>42981</v>
+      </c>
+      <c r="B157">
+        <v>83</v>
+      </c>
+      <c r="C157">
+        <v>73</v>
+      </c>
+      <c r="D157">
+        <v>63</v>
+      </c>
+      <c r="E157">
+        <v>61</v>
+      </c>
+      <c r="F157">
+        <v>60</v>
+      </c>
+      <c r="G157">
+        <v>58</v>
+      </c>
+      <c r="H157">
+        <v>90</v>
+      </c>
+      <c r="I157">
+        <v>65.8</v>
+      </c>
+      <c r="J157">
+        <v>42</v>
+      </c>
+      <c r="K157">
+        <v>12</v>
+      </c>
+      <c r="L157">
+        <v>5.8</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="3">
+        <v>42982</v>
+      </c>
+      <c r="B158">
+        <v>86</v>
+      </c>
+      <c r="C158">
+        <v>75.3</v>
+      </c>
+      <c r="D158">
+        <v>63</v>
+      </c>
+      <c r="E158">
+        <v>67</v>
+      </c>
+      <c r="F158">
+        <v>63</v>
+      </c>
+      <c r="G158">
+        <v>59</v>
+      </c>
+      <c r="H158">
+        <v>87</v>
+      </c>
+      <c r="I158">
+        <v>67.2</v>
+      </c>
+      <c r="J158">
+        <v>48</v>
+      </c>
+      <c r="K158">
+        <v>12</v>
+      </c>
+      <c r="L158">
+        <v>4</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="3">
+        <v>42983</v>
+      </c>
+      <c r="B159">
+        <v>85</v>
+      </c>
+      <c r="C159">
+        <v>75.2</v>
+      </c>
+      <c r="D159">
+        <v>68</v>
+      </c>
+      <c r="E159">
+        <v>68</v>
+      </c>
+      <c r="F159">
+        <v>66.5</v>
+      </c>
+      <c r="G159">
+        <v>65</v>
+      </c>
+      <c r="H159">
+        <v>96</v>
+      </c>
+      <c r="I159">
+        <v>75.5</v>
+      </c>
+      <c r="J159">
+        <v>55</v>
+      </c>
+      <c r="K159">
+        <v>15</v>
+      </c>
+      <c r="L159">
+        <v>6.2</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="3">
+        <v>42984</v>
+      </c>
+      <c r="B160">
+        <v>75</v>
+      </c>
+      <c r="C160">
+        <v>66.8</v>
+      </c>
+      <c r="D160">
+        <v>61</v>
+      </c>
+      <c r="E160">
+        <v>66</v>
+      </c>
+      <c r="F160">
+        <v>59.2</v>
+      </c>
+      <c r="G160">
+        <v>48</v>
+      </c>
+      <c r="H160">
+        <v>100</v>
+      </c>
+      <c r="I160">
+        <v>78.8</v>
+      </c>
+      <c r="J160">
+        <v>41</v>
+      </c>
+      <c r="K160">
+        <v>17</v>
+      </c>
+      <c r="L160">
+        <v>10</v>
+      </c>
+      <c r="M160">
+        <v>5</v>
+      </c>
+      <c r="N160" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="3">
+        <v>42985</v>
+      </c>
+      <c r="B161">
+        <v>77</v>
+      </c>
+      <c r="C161">
+        <v>65.8</v>
+      </c>
+      <c r="D161">
+        <v>54</v>
+      </c>
+      <c r="E161">
+        <v>51</v>
+      </c>
+      <c r="F161">
+        <v>48</v>
+      </c>
+      <c r="G161">
+        <v>44</v>
+      </c>
+      <c r="H161">
+        <v>90</v>
+      </c>
+      <c r="I161">
+        <v>56.3</v>
+      </c>
+      <c r="J161">
+        <v>33</v>
+      </c>
+      <c r="K161">
+        <v>12</v>
+      </c>
+      <c r="L161">
+        <v>7.4</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="3">
+        <v>42986</v>
+      </c>
+      <c r="B162">
+        <v>79</v>
+      </c>
+      <c r="C162">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D162">
+        <v>57</v>
+      </c>
+      <c r="E162">
+        <v>56</v>
+      </c>
+      <c r="F162">
+        <v>52.9</v>
+      </c>
+      <c r="G162">
+        <v>50</v>
+      </c>
+      <c r="H162">
+        <v>81</v>
+      </c>
+      <c r="I162">
+        <v>58.3</v>
+      </c>
+      <c r="J162">
+        <v>40</v>
+      </c>
+      <c r="K162">
+        <v>12</v>
+      </c>
+      <c r="L162">
+        <v>7.6</v>
+      </c>
+      <c r="M162">
+        <v>3</v>
+      </c>
+      <c r="N162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="3">
+        <v>42987</v>
+      </c>
+      <c r="B163">
+        <v>79</v>
+      </c>
+      <c r="C163">
+        <v>70.5</v>
+      </c>
+      <c r="D163">
+        <v>62</v>
+      </c>
+      <c r="E163">
+        <v>55</v>
+      </c>
+      <c r="F163">
+        <v>52.2</v>
+      </c>
+      <c r="G163">
+        <v>48</v>
+      </c>
+      <c r="H163">
+        <v>75</v>
+      </c>
+      <c r="I163">
+        <v>54.1</v>
+      </c>
+      <c r="J163">
+        <v>34</v>
+      </c>
+      <c r="K163">
+        <v>25</v>
+      </c>
+      <c r="L163">
+        <v>15.2</v>
+      </c>
+      <c r="M163">
+        <v>9</v>
+      </c>
+      <c r="N163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="3">
+        <v>42988</v>
+      </c>
+      <c r="B164">
+        <v>72</v>
+      </c>
+      <c r="C164">
+        <v>65.5</v>
+      </c>
+      <c r="D164">
+        <v>61</v>
+      </c>
+      <c r="E164">
+        <v>51</v>
+      </c>
+      <c r="F164">
+        <v>47.9</v>
+      </c>
+      <c r="G164">
+        <v>44</v>
+      </c>
+      <c r="H164">
+        <v>70</v>
+      </c>
+      <c r="I164">
+        <v>53.9</v>
+      </c>
+      <c r="J164">
+        <v>38</v>
+      </c>
+      <c r="K164">
+        <v>29</v>
+      </c>
+      <c r="L164">
+        <v>20.3</v>
+      </c>
+      <c r="M164">
+        <v>15</v>
+      </c>
+      <c r="N164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="3">
+        <v>42989</v>
+      </c>
+      <c r="B165">
+        <v>64</v>
+      </c>
+      <c r="C165">
+        <v>60.5</v>
+      </c>
+      <c r="D165">
+        <v>57</v>
+      </c>
+      <c r="E165">
+        <v>63</v>
+      </c>
+      <c r="F165">
+        <v>57.3</v>
+      </c>
+      <c r="G165">
+        <v>48</v>
+      </c>
+      <c r="H165">
+        <v>100</v>
+      </c>
+      <c r="I165">
+        <v>89.6</v>
+      </c>
+      <c r="J165">
+        <v>58</v>
+      </c>
+      <c r="K165">
+        <v>43</v>
+      </c>
+      <c r="L165">
+        <v>27.4</v>
+      </c>
+      <c r="M165">
+        <v>15</v>
+      </c>
+      <c r="N165" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="3">
+        <v>42990</v>
+      </c>
+      <c r="B166">
+        <v>64</v>
+      </c>
+      <c r="C166">
+        <v>61.8</v>
+      </c>
+      <c r="D166">
+        <v>59</v>
+      </c>
+      <c r="E166">
+        <v>63</v>
+      </c>
+      <c r="F166">
+        <v>59.9</v>
+      </c>
+      <c r="G166">
+        <v>57</v>
+      </c>
+      <c r="H166">
+        <v>100</v>
+      </c>
+      <c r="I166">
+        <v>93.8</v>
+      </c>
+      <c r="J166">
+        <v>84</v>
+      </c>
+      <c r="K166">
+        <v>18</v>
+      </c>
+      <c r="L166">
+        <v>11.2</v>
+      </c>
+      <c r="M166">
+        <v>6</v>
+      </c>
+      <c r="N166" s="1">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="3">
+        <v>42991</v>
+      </c>
+      <c r="B167">
+        <v>75</v>
+      </c>
+      <c r="C167">
+        <v>65.8</v>
+      </c>
+      <c r="D167">
+        <v>60</v>
+      </c>
+      <c r="E167">
+        <v>61</v>
+      </c>
+      <c r="F167">
+        <v>59</v>
+      </c>
+      <c r="G167">
+        <v>57</v>
+      </c>
+      <c r="H167">
+        <v>100</v>
+      </c>
+      <c r="I167">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="J167">
+        <v>53</v>
+      </c>
+      <c r="K167">
+        <v>15</v>
+      </c>
+      <c r="L167">
+        <v>7.2</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="3">
+        <v>42992</v>
+      </c>
+      <c r="B168">
+        <v>79</v>
+      </c>
+      <c r="C168">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="D168">
+        <v>67</v>
+      </c>
+      <c r="E168">
+        <v>66</v>
+      </c>
+      <c r="F168">
+        <v>63.4</v>
+      </c>
+      <c r="G168">
+        <v>61</v>
+      </c>
+      <c r="H168">
+        <v>87</v>
+      </c>
+      <c r="I168">
+        <v>75.8</v>
+      </c>
+      <c r="J168">
+        <v>60</v>
+      </c>
+      <c r="K168">
+        <v>10</v>
+      </c>
+      <c r="L168">
+        <v>3.7</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="3">
+        <v>42993</v>
+      </c>
+      <c r="B169">
+        <v>82</v>
+      </c>
+      <c r="C169">
+        <v>74.7</v>
+      </c>
+      <c r="D169">
+        <v>66</v>
+      </c>
+      <c r="E169">
+        <v>67</v>
+      </c>
+      <c r="F169">
+        <v>65.2</v>
+      </c>
+      <c r="G169">
+        <v>64</v>
+      </c>
+      <c r="H169">
+        <v>93</v>
+      </c>
+      <c r="I169">
+        <v>73.5</v>
+      </c>
+      <c r="J169">
+        <v>54</v>
+      </c>
+      <c r="K169">
+        <v>6</v>
+      </c>
+      <c r="L169">
+        <v>2.1</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="3">
+        <v>42994</v>
+      </c>
+      <c r="B170">
+        <v>86</v>
+      </c>
+      <c r="C170">
+        <v>76.7</v>
+      </c>
+      <c r="D170">
+        <v>68</v>
+      </c>
+      <c r="E170">
+        <v>67</v>
+      </c>
+      <c r="F170">
+        <v>65.2</v>
+      </c>
+      <c r="G170">
+        <v>63</v>
+      </c>
+      <c r="H170">
+        <v>90</v>
+      </c>
+      <c r="I170">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="J170">
+        <v>48</v>
+      </c>
+      <c r="K170">
+        <v>9</v>
+      </c>
+      <c r="L170">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="3">
+        <v>42995</v>
+      </c>
+      <c r="B171">
+        <v>87</v>
+      </c>
+      <c r="C171">
+        <v>77.7</v>
+      </c>
+      <c r="D171">
+        <v>68</v>
+      </c>
+      <c r="E171">
+        <v>67</v>
+      </c>
+      <c r="F171">
+        <v>64.7</v>
+      </c>
+      <c r="G171">
+        <v>62</v>
+      </c>
+      <c r="H171">
+        <v>90</v>
+      </c>
+      <c r="I171">
+        <v>66.2</v>
+      </c>
+      <c r="J171">
+        <v>46</v>
+      </c>
+      <c r="K171">
+        <v>9</v>
+      </c>
+      <c r="L171">
+        <v>3.4</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="3">
+        <v>42996</v>
+      </c>
+      <c r="B172">
+        <v>87</v>
+      </c>
+      <c r="C172">
+        <v>76.3</v>
+      </c>
+      <c r="D172">
+        <v>67</v>
+      </c>
+      <c r="E172">
+        <v>66</v>
+      </c>
+      <c r="F172">
+        <v>62.8</v>
+      </c>
+      <c r="G172">
+        <v>56</v>
+      </c>
+      <c r="H172">
+        <v>90</v>
+      </c>
+      <c r="I172">
+        <v>65.5</v>
+      </c>
+      <c r="J172">
+        <v>36</v>
+      </c>
+      <c r="K172">
+        <v>10</v>
+      </c>
+      <c r="L172">
+        <v>5</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="3">
+        <v>42997</v>
+      </c>
+      <c r="B173">
+        <v>88</v>
+      </c>
+      <c r="C173">
+        <v>77.5</v>
+      </c>
+      <c r="D173">
+        <v>66</v>
+      </c>
+      <c r="E173">
+        <v>68</v>
+      </c>
+      <c r="F173">
+        <v>64.2</v>
+      </c>
+      <c r="G173">
+        <v>61</v>
+      </c>
+      <c r="H173">
+        <v>93</v>
+      </c>
+      <c r="I173">
+        <v>66.2</v>
+      </c>
+      <c r="J173">
+        <v>40</v>
+      </c>
+      <c r="K173">
+        <v>9</v>
+      </c>
+      <c r="L173">
+        <v>4.2</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="3">
+        <v>42998</v>
+      </c>
+      <c r="B174">
+        <v>88</v>
+      </c>
+      <c r="C174">
+        <v>78.3</v>
+      </c>
+      <c r="D174">
+        <v>70</v>
+      </c>
+      <c r="E174">
+        <v>69</v>
+      </c>
+      <c r="F174">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G174">
+        <v>63</v>
+      </c>
+      <c r="H174">
+        <v>93</v>
+      </c>
+      <c r="I174">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="J174">
+        <v>43</v>
+      </c>
+      <c r="K174">
+        <v>8</v>
+      </c>
+      <c r="L174">
+        <v>5.6</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="3">
+        <v>42999</v>
+      </c>
+      <c r="B175">
+        <v>88</v>
+      </c>
+      <c r="C175">
+        <v>78.7</v>
+      </c>
+      <c r="D175">
+        <v>70</v>
+      </c>
+      <c r="E175">
+        <v>71</v>
+      </c>
+      <c r="F175">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G175">
+        <v>64</v>
+      </c>
+      <c r="H175">
+        <v>90</v>
+      </c>
+      <c r="I175">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="J175">
+        <v>46</v>
+      </c>
+      <c r="K175">
+        <v>15</v>
+      </c>
+      <c r="L175">
+        <v>5.2</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="3">
+        <v>43000</v>
+      </c>
+      <c r="B176">
+        <v>89</v>
+      </c>
+      <c r="C176">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="D176">
+        <v>70</v>
+      </c>
+      <c r="E176">
+        <v>69</v>
+      </c>
+      <c r="F176">
+        <v>66.2</v>
+      </c>
+      <c r="G176">
+        <v>64</v>
+      </c>
+      <c r="H176">
+        <v>87</v>
+      </c>
+      <c r="I176">
+        <v>68.7</v>
+      </c>
+      <c r="J176">
+        <v>43</v>
+      </c>
+      <c r="K176">
+        <v>9</v>
+      </c>
+      <c r="L176">
+        <v>5.4</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="3">
+        <v>43001</v>
+      </c>
+      <c r="B177">
+        <v>86</v>
+      </c>
+      <c r="C177">
+        <v>78</v>
+      </c>
+      <c r="D177">
+        <v>70</v>
+      </c>
+      <c r="E177">
+        <v>68</v>
+      </c>
+      <c r="F177">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="G177">
+        <v>60</v>
+      </c>
+      <c r="H177">
+        <v>87</v>
+      </c>
+      <c r="I177">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="J177">
+        <v>41</v>
+      </c>
+      <c r="K177">
+        <v>9</v>
+      </c>
+      <c r="L177">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="3">
+        <v>43002</v>
+      </c>
+      <c r="B178">
+        <v>84</v>
+      </c>
+      <c r="C178">
+        <v>76.3</v>
+      </c>
+      <c r="D178">
+        <v>69</v>
+      </c>
+      <c r="E178">
+        <v>66</v>
+      </c>
+      <c r="F178">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="G178">
+        <v>61</v>
+      </c>
+      <c r="H178">
+        <v>84</v>
+      </c>
+      <c r="I178">
+        <v>66.8</v>
+      </c>
+      <c r="J178">
+        <v>49</v>
+      </c>
+      <c r="K178">
+        <v>15</v>
+      </c>
+      <c r="L178">
+        <v>7.8</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="3">
+        <v>43003</v>
+      </c>
+      <c r="B179">
+        <v>85</v>
+      </c>
+      <c r="C179">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="D179">
+        <v>71</v>
+      </c>
+      <c r="E179">
+        <v>64</v>
+      </c>
+      <c r="F179">
+        <v>61.6</v>
+      </c>
+      <c r="G179">
+        <v>57</v>
+      </c>
+      <c r="H179">
+        <v>78</v>
+      </c>
+      <c r="I179">
+        <v>59.3</v>
+      </c>
+      <c r="J179">
+        <v>38</v>
+      </c>
+      <c r="K179">
+        <v>14</v>
+      </c>
+      <c r="L179">
+        <v>7.3</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="3">
+        <v>43004</v>
+      </c>
+      <c r="B180">
+        <v>87</v>
+      </c>
+      <c r="C180">
+        <v>78</v>
+      </c>
+      <c r="D180">
+        <v>68</v>
+      </c>
+      <c r="E180">
+        <v>66</v>
+      </c>
+      <c r="F180">
+        <v>63.1</v>
+      </c>
+      <c r="G180">
+        <v>61</v>
+      </c>
+      <c r="H180">
+        <v>84</v>
+      </c>
+      <c r="I180">
+        <v>61.2</v>
+      </c>
+      <c r="J180">
+        <v>43</v>
+      </c>
+      <c r="K180">
+        <v>13</v>
+      </c>
+      <c r="L180">
+        <v>6.7</v>
+      </c>
+      <c r="M180">
+        <v>3</v>
+      </c>
+      <c r="N180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="3">
+        <v>43005</v>
+      </c>
+      <c r="B181">
+        <v>89</v>
+      </c>
+      <c r="C181">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="D181">
+        <v>67</v>
+      </c>
+      <c r="E181">
+        <v>66</v>
+      </c>
+      <c r="F181">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="G181">
+        <v>62</v>
+      </c>
+      <c r="H181">
+        <v>90</v>
+      </c>
+      <c r="I181">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="J181">
+        <v>40</v>
+      </c>
+      <c r="K181">
+        <v>13</v>
+      </c>
+      <c r="L181">
+        <v>6.5</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="3">
+        <v>43006</v>
+      </c>
+      <c r="B182">
+        <v>91</v>
+      </c>
+      <c r="C182">
+        <v>78.8</v>
+      </c>
+      <c r="D182">
+        <v>68</v>
+      </c>
+      <c r="E182">
+        <v>67</v>
+      </c>
+      <c r="F182">
+        <v>64.5</v>
+      </c>
+      <c r="G182">
+        <v>58</v>
+      </c>
+      <c r="H182">
+        <v>90</v>
+      </c>
+      <c r="I182">
+        <v>64.3</v>
+      </c>
+      <c r="J182">
+        <v>33</v>
+      </c>
+      <c r="K182">
+        <v>12</v>
+      </c>
+      <c r="L182">
+        <v>6.1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="3">
+        <v>43007</v>
+      </c>
+      <c r="B183">
+        <v>88</v>
+      </c>
+      <c r="C183">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="D183">
+        <v>68</v>
+      </c>
+      <c r="E183">
+        <v>67</v>
+      </c>
+      <c r="F183">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="G183">
+        <v>62</v>
+      </c>
+      <c r="H183">
+        <v>84</v>
+      </c>
+      <c r="I183">
+        <v>63.8</v>
+      </c>
+      <c r="J183">
+        <v>42</v>
+      </c>
+      <c r="K183">
+        <v>12</v>
+      </c>
+      <c r="L183">
+        <v>7.8</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="3">
+        <v>43008</v>
+      </c>
+      <c r="B184">
+        <v>81</v>
+      </c>
+      <c r="C184">
+        <v>73.8</v>
+      </c>
+      <c r="D184">
+        <v>66</v>
+      </c>
+      <c r="E184">
+        <v>65</v>
+      </c>
+      <c r="F184">
+        <v>57.2</v>
+      </c>
+      <c r="G184">
+        <v>53</v>
+      </c>
+      <c r="H184">
+        <v>71</v>
+      </c>
+      <c r="I184">
+        <v>57.4</v>
+      </c>
+      <c r="J184">
+        <v>40</v>
+      </c>
+      <c r="K184">
+        <v>21</v>
+      </c>
+      <c r="L184">
+        <v>12.6</v>
+      </c>
+      <c r="M184">
+        <v>7</v>
+      </c>
+      <c r="N184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="3">
+        <v>43009</v>
+      </c>
+      <c r="B185">
+        <v>73</v>
+      </c>
+      <c r="C185">
+        <v>65.2</v>
+      </c>
+      <c r="D185">
+        <v>58</v>
+      </c>
+      <c r="E185">
+        <v>54</v>
+      </c>
+      <c r="F185">
+        <v>44.6</v>
+      </c>
+      <c r="G185">
+        <v>43</v>
+      </c>
+      <c r="H185">
+        <v>65</v>
+      </c>
+      <c r="I185">
+        <v>48.3</v>
+      </c>
+      <c r="J185">
+        <v>34</v>
+      </c>
+      <c r="K185">
+        <v>24</v>
+      </c>
+      <c r="L185">
+        <v>15.7</v>
+      </c>
+      <c r="M185">
+        <v>10</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="3">
+        <v>43010</v>
+      </c>
+      <c r="B186">
+        <v>76</v>
+      </c>
+      <c r="C186">
+        <v>66.2</v>
+      </c>
+      <c r="D186">
+        <v>58</v>
+      </c>
+      <c r="E186">
+        <v>58</v>
+      </c>
+      <c r="F186">
+        <v>52.8</v>
+      </c>
+      <c r="G186">
+        <v>47</v>
+      </c>
+      <c r="H186">
+        <v>72</v>
+      </c>
+      <c r="I186">
+        <v>62.4</v>
+      </c>
+      <c r="J186">
+        <v>50</v>
+      </c>
+      <c r="K186">
+        <v>17</v>
+      </c>
+      <c r="L186">
+        <v>13.2</v>
+      </c>
+      <c r="M186">
+        <v>9</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>